--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinxi\git_repos\CS555_team5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA706F7-65CD-4F0B-A594-E39E444D4153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E013A9-1865-4865-8E92-A8F0AEDAFD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -3183,7 +3183,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -12954,7 +12954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -20521,8 +20521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lijp0\Desktop\555\Group Project\CS555_team5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5AD625-210C-47D6-A00F-1221044ABE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE882693-A6A8-4CA6-933A-B3D39C74424B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="193">
   <si>
     <t>Initials</t>
   </si>
@@ -307,16 +307,10 @@
     <t>No marriages to descendants</t>
   </si>
   <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
     <t>US18</t>
   </si>
   <si>
     <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
   </si>
   <si>
     <t>US19</t>
@@ -616,12 +610,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3 days</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
     <t>keep communicating</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -637,6 +625,22 @@
   </si>
   <si>
     <t>Help teammates in need</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +776,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -804,7 +808,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1094,6 +1097,9 @@
                 <c:pt idx="2">
                   <c:v>44849</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44863</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1111,6 +1117,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2139,70 +2148,70 @@
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2212,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3221,7 +3230,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B26" sqref="B26:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3283,10 +3292,10 @@
         <v>45</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3300,10 +3309,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3317,10 +3326,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3334,10 +3343,10 @@
         <v>51</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,10 +3360,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3368,10 +3377,10 @@
         <v>55</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3385,10 +3394,10 @@
         <v>58</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3402,10 +3411,10 @@
         <v>60</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3419,10 +3428,10 @@
         <v>63</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3436,10 +3445,10 @@
         <v>66</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3453,10 +3462,10 @@
         <v>69</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3470,10 +3479,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3487,10 +3496,10 @@
         <v>75</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3504,10 +3513,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3521,10 +3530,10 @@
         <v>81</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3538,10 +3547,10 @@
         <v>84</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3555,10 +3564,10 @@
         <v>87</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>162</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3566,16 +3575,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>162</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3583,16 +3592,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>177</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3600,16 +3609,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>177</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,16 +3626,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>15</v>
+        <v>167</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,16 +3643,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>15</v>
+        <v>167</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3651,16 +3660,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>15</v>
+        <v>172</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3668,16 +3677,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>172</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3685,118 +3694,152 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+        <v>118</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+        <v>124</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>133</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8933,4100 +8976,4115 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="25" customWidth="1"/>
-    <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="25" customWidth="1"/>
-    <col min="7" max="26" width="10.75" style="25" customWidth="1"/>
-    <col min="27" max="16384" width="14.375" style="25"/>
+    <col min="1" max="1" width="10.875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18" style="24" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="24" customWidth="1"/>
+    <col min="7" max="26" width="10.75" style="24" customWidth="1"/>
+    <col min="27" max="16384" width="14.375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>44828</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>32</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>44837</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>24</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <f>B2-B3</f>
         <v>8</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>152</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>240</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <f>(D3-D2)/E3*60</f>
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>44849</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>16</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <f>B3-B4</f>
         <v>8</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>350</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>240</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <f>(D4-D3)/E4*60</f>
         <v>49.5</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="F5" s="28"/>
+      <c r="A5" s="25">
+        <v>44863</v>
+      </c>
+      <c r="B5" s="24">
+        <v>8</v>
+      </c>
+      <c r="C5" s="26">
+        <f>B4-B5</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="24">
+        <v>240</v>
+      </c>
+      <c r="F5" s="27">
+        <f>(D5-D4)/E5*60</f>
+        <v>-87.5</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="F6" s="28"/>
+      <c r="A6" s="25"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="F7" s="28"/>
+      <c r="A7" s="25"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="F8" s="28"/>
+      <c r="A8" s="25"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="F9" s="28"/>
+      <c r="A9" s="25"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="25"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="F11" s="28"/>
+      <c r="A11" s="25"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="25"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="F13" s="28"/>
+      <c r="A13" s="25"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="25"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="25"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="25"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="F17" s="28"/>
+      <c r="A17" s="25"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="F18" s="28"/>
+      <c r="A18" s="25"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="25"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="F20" s="28"/>
+      <c r="A20" s="25"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="25"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="25"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="25"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="F24" s="28"/>
+      <c r="A24" s="25"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="F25" s="28"/>
+      <c r="A25" s="25"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="25"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="F27" s="28"/>
+      <c r="A27" s="25"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="F28" s="28"/>
+      <c r="A28" s="25"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="F29" s="28"/>
+      <c r="A29" s="25"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="25"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="25"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="F32" s="28"/>
+      <c r="A32" s="25"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="F33" s="28"/>
+      <c r="A33" s="25"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="F34" s="28"/>
+      <c r="A34" s="25"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="F35" s="28"/>
+      <c r="A35" s="25"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="F36" s="28"/>
+      <c r="A36" s="25"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="F37" s="28"/>
+      <c r="A37" s="25"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="F38" s="28"/>
+      <c r="A38" s="25"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="F39" s="28"/>
+      <c r="A39" s="25"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="F40" s="28"/>
+      <c r="A40" s="25"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="F41" s="28"/>
+      <c r="A41" s="25"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="F42" s="28"/>
+      <c r="A42" s="25"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="F43" s="28"/>
+      <c r="A43" s="25"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
-      <c r="F44" s="28"/>
+      <c r="A44" s="25"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
-      <c r="F45" s="28"/>
+      <c r="A45" s="25"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26"/>
-      <c r="F46" s="28"/>
+      <c r="A46" s="25"/>
+      <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="F47" s="28"/>
+      <c r="A47" s="25"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="F48" s="28"/>
+      <c r="A48" s="25"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="F49" s="28"/>
+      <c r="A49" s="25"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="26"/>
-      <c r="F50" s="28"/>
+      <c r="A50" s="25"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="F51" s="28"/>
+      <c r="A51" s="25"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="F52" s="28"/>
+      <c r="A52" s="25"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="F53" s="28"/>
+      <c r="A53" s="25"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="F54" s="28"/>
+      <c r="A54" s="25"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
-      <c r="F55" s="28"/>
+      <c r="A55" s="25"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="F56" s="28"/>
+      <c r="A56" s="25"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
-      <c r="F57" s="28"/>
+      <c r="A57" s="25"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="F58" s="28"/>
+      <c r="A58" s="25"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="26"/>
-      <c r="F59" s="28"/>
+      <c r="A59" s="25"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-      <c r="F60" s="28"/>
+      <c r="A60" s="25"/>
+      <c r="F60" s="27"/>
     </row>
     <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="F61" s="28"/>
+      <c r="A61" s="25"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="26"/>
-      <c r="F62" s="28"/>
+      <c r="A62" s="25"/>
+      <c r="F62" s="27"/>
     </row>
     <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="F63" s="28"/>
+      <c r="A63" s="25"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="26"/>
-      <c r="F64" s="28"/>
+      <c r="A64" s="25"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="26"/>
-      <c r="F65" s="28"/>
+      <c r="A65" s="25"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="26"/>
-      <c r="F66" s="28"/>
+      <c r="A66" s="25"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="26"/>
-      <c r="F67" s="28"/>
+      <c r="A67" s="25"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="26"/>
-      <c r="F68" s="28"/>
+      <c r="A68" s="25"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="26"/>
-      <c r="F69" s="28"/>
+      <c r="A69" s="25"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="26"/>
-      <c r="F70" s="28"/>
+      <c r="A70" s="25"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
-      <c r="F71" s="28"/>
+      <c r="A71" s="25"/>
+      <c r="F71" s="27"/>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="26"/>
-      <c r="F72" s="28"/>
+      <c r="A72" s="25"/>
+      <c r="F72" s="27"/>
     </row>
     <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
-      <c r="F73" s="28"/>
+      <c r="A73" s="25"/>
+      <c r="F73" s="27"/>
     </row>
     <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="26"/>
-      <c r="F74" s="28"/>
+      <c r="A74" s="25"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="F75" s="28"/>
+      <c r="A75" s="25"/>
+      <c r="F75" s="27"/>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="26"/>
-      <c r="F76" s="28"/>
+      <c r="A76" s="25"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="26"/>
-      <c r="F77" s="28"/>
+      <c r="A77" s="25"/>
+      <c r="F77" s="27"/>
     </row>
     <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
-      <c r="F78" s="28"/>
+      <c r="A78" s="25"/>
+      <c r="F78" s="27"/>
     </row>
     <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
-      <c r="F79" s="28"/>
+      <c r="A79" s="25"/>
+      <c r="F79" s="27"/>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
-      <c r="F80" s="28"/>
+      <c r="A80" s="25"/>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
-      <c r="F81" s="28"/>
+      <c r="A81" s="25"/>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="F82" s="28"/>
+      <c r="A82" s="25"/>
+      <c r="F82" s="27"/>
     </row>
     <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
-      <c r="F83" s="28"/>
+      <c r="A83" s="25"/>
+      <c r="F83" s="27"/>
     </row>
     <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
-      <c r="F84" s="28"/>
+      <c r="A84" s="25"/>
+      <c r="F84" s="27"/>
     </row>
     <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="26"/>
-      <c r="F85" s="28"/>
+      <c r="A85" s="25"/>
+      <c r="F85" s="27"/>
     </row>
     <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="26"/>
-      <c r="F86" s="28"/>
+      <c r="A86" s="25"/>
+      <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="26"/>
-      <c r="F87" s="28"/>
+      <c r="A87" s="25"/>
+      <c r="F87" s="27"/>
     </row>
     <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
-      <c r="F88" s="28"/>
+      <c r="A88" s="25"/>
+      <c r="F88" s="27"/>
     </row>
     <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
-      <c r="F89" s="28"/>
+      <c r="A89" s="25"/>
+      <c r="F89" s="27"/>
     </row>
     <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
-      <c r="F90" s="28"/>
+      <c r="A90" s="25"/>
+      <c r="F90" s="27"/>
     </row>
     <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
-      <c r="F91" s="28"/>
+      <c r="A91" s="25"/>
+      <c r="F91" s="27"/>
     </row>
     <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="26"/>
-      <c r="F92" s="28"/>
+      <c r="A92" s="25"/>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="F93" s="28"/>
+      <c r="A93" s="25"/>
+      <c r="F93" s="27"/>
     </row>
     <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="26"/>
-      <c r="F94" s="28"/>
+      <c r="A94" s="25"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
-      <c r="F95" s="28"/>
+      <c r="A95" s="25"/>
+      <c r="F95" s="27"/>
     </row>
     <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="26"/>
-      <c r="F96" s="28"/>
+      <c r="A96" s="25"/>
+      <c r="F96" s="27"/>
     </row>
     <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="26"/>
-      <c r="F97" s="28"/>
+      <c r="A97" s="25"/>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="F98" s="28"/>
+      <c r="A98" s="25"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="F99" s="28"/>
+      <c r="A99" s="25"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
-      <c r="F100" s="28"/>
+      <c r="A100" s="25"/>
+      <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="26"/>
-      <c r="F101" s="28"/>
+      <c r="A101" s="25"/>
+      <c r="F101" s="27"/>
     </row>
     <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
-      <c r="F102" s="28"/>
+      <c r="A102" s="25"/>
+      <c r="F102" s="27"/>
     </row>
     <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="26"/>
-      <c r="F103" s="28"/>
+      <c r="A103" s="25"/>
+      <c r="F103" s="27"/>
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="26"/>
-      <c r="F104" s="28"/>
+      <c r="A104" s="25"/>
+      <c r="F104" s="27"/>
     </row>
     <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
-      <c r="F105" s="28"/>
+      <c r="A105" s="25"/>
+      <c r="F105" s="27"/>
     </row>
     <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="26"/>
-      <c r="F106" s="28"/>
+      <c r="A106" s="25"/>
+      <c r="F106" s="27"/>
     </row>
     <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="26"/>
-      <c r="F107" s="28"/>
+      <c r="A107" s="25"/>
+      <c r="F107" s="27"/>
     </row>
     <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="26"/>
-      <c r="F108" s="28"/>
+      <c r="A108" s="25"/>
+      <c r="F108" s="27"/>
     </row>
     <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="26"/>
-      <c r="F109" s="28"/>
+      <c r="A109" s="25"/>
+      <c r="F109" s="27"/>
     </row>
     <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="26"/>
-      <c r="F110" s="28"/>
+      <c r="A110" s="25"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="26"/>
-      <c r="F111" s="28"/>
+      <c r="A111" s="25"/>
+      <c r="F111" s="27"/>
     </row>
     <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="26"/>
-      <c r="F112" s="28"/>
+      <c r="A112" s="25"/>
+      <c r="F112" s="27"/>
     </row>
     <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="26"/>
-      <c r="F113" s="28"/>
+      <c r="A113" s="25"/>
+      <c r="F113" s="27"/>
     </row>
     <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="26"/>
-      <c r="F114" s="28"/>
+      <c r="A114" s="25"/>
+      <c r="F114" s="27"/>
     </row>
     <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="26"/>
-      <c r="F115" s="28"/>
+      <c r="A115" s="25"/>
+      <c r="F115" s="27"/>
     </row>
     <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="26"/>
-      <c r="F116" s="28"/>
+      <c r="A116" s="25"/>
+      <c r="F116" s="27"/>
     </row>
     <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="26"/>
-      <c r="F117" s="28"/>
+      <c r="A117" s="25"/>
+      <c r="F117" s="27"/>
     </row>
     <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="26"/>
-      <c r="F118" s="28"/>
+      <c r="A118" s="25"/>
+      <c r="F118" s="27"/>
     </row>
     <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="26"/>
-      <c r="F119" s="28"/>
+      <c r="A119" s="25"/>
+      <c r="F119" s="27"/>
     </row>
     <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="26"/>
-      <c r="F120" s="28"/>
+      <c r="A120" s="25"/>
+      <c r="F120" s="27"/>
     </row>
     <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="26"/>
-      <c r="F121" s="28"/>
+      <c r="A121" s="25"/>
+      <c r="F121" s="27"/>
     </row>
     <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="26"/>
-      <c r="F122" s="28"/>
+      <c r="A122" s="25"/>
+      <c r="F122" s="27"/>
     </row>
     <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="26"/>
-      <c r="F123" s="28"/>
+      <c r="A123" s="25"/>
+      <c r="F123" s="27"/>
     </row>
     <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="26"/>
-      <c r="F124" s="28"/>
+      <c r="A124" s="25"/>
+      <c r="F124" s="27"/>
     </row>
     <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="26"/>
-      <c r="F125" s="28"/>
+      <c r="A125" s="25"/>
+      <c r="F125" s="27"/>
     </row>
     <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="26"/>
-      <c r="F126" s="28"/>
+      <c r="A126" s="25"/>
+      <c r="F126" s="27"/>
     </row>
     <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="26"/>
-      <c r="F127" s="28"/>
+      <c r="A127" s="25"/>
+      <c r="F127" s="27"/>
     </row>
     <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="26"/>
-      <c r="F128" s="28"/>
+      <c r="A128" s="25"/>
+      <c r="F128" s="27"/>
     </row>
     <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="26"/>
-      <c r="F129" s="28"/>
+      <c r="A129" s="25"/>
+      <c r="F129" s="27"/>
     </row>
     <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="26"/>
-      <c r="F130" s="28"/>
+      <c r="A130" s="25"/>
+      <c r="F130" s="27"/>
     </row>
     <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="26"/>
-      <c r="F131" s="28"/>
+      <c r="A131" s="25"/>
+      <c r="F131" s="27"/>
     </row>
     <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="26"/>
-      <c r="F132" s="28"/>
+      <c r="A132" s="25"/>
+      <c r="F132" s="27"/>
     </row>
     <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="26"/>
-      <c r="F133" s="28"/>
+      <c r="A133" s="25"/>
+      <c r="F133" s="27"/>
     </row>
     <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="26"/>
-      <c r="F134" s="28"/>
+      <c r="A134" s="25"/>
+      <c r="F134" s="27"/>
     </row>
     <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="26"/>
-      <c r="F135" s="28"/>
+      <c r="A135" s="25"/>
+      <c r="F135" s="27"/>
     </row>
     <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="26"/>
-      <c r="F136" s="28"/>
+      <c r="A136" s="25"/>
+      <c r="F136" s="27"/>
     </row>
     <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="26"/>
-      <c r="F137" s="28"/>
+      <c r="A137" s="25"/>
+      <c r="F137" s="27"/>
     </row>
     <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="26"/>
-      <c r="F138" s="28"/>
+      <c r="A138" s="25"/>
+      <c r="F138" s="27"/>
     </row>
     <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="26"/>
-      <c r="F139" s="28"/>
+      <c r="A139" s="25"/>
+      <c r="F139" s="27"/>
     </row>
     <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="26"/>
-      <c r="F140" s="28"/>
+      <c r="A140" s="25"/>
+      <c r="F140" s="27"/>
     </row>
     <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="26"/>
-      <c r="F141" s="28"/>
+      <c r="A141" s="25"/>
+      <c r="F141" s="27"/>
     </row>
     <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="26"/>
-      <c r="F142" s="28"/>
+      <c r="A142" s="25"/>
+      <c r="F142" s="27"/>
     </row>
     <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="26"/>
-      <c r="F143" s="28"/>
+      <c r="A143" s="25"/>
+      <c r="F143" s="27"/>
     </row>
     <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="26"/>
-      <c r="F144" s="28"/>
+      <c r="A144" s="25"/>
+      <c r="F144" s="27"/>
     </row>
     <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="26"/>
-      <c r="F145" s="28"/>
+      <c r="A145" s="25"/>
+      <c r="F145" s="27"/>
     </row>
     <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="26"/>
-      <c r="F146" s="28"/>
+      <c r="A146" s="25"/>
+      <c r="F146" s="27"/>
     </row>
     <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="26"/>
-      <c r="F147" s="28"/>
+      <c r="A147" s="25"/>
+      <c r="F147" s="27"/>
     </row>
     <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="26"/>
-      <c r="F148" s="28"/>
+      <c r="A148" s="25"/>
+      <c r="F148" s="27"/>
     </row>
     <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="26"/>
-      <c r="F149" s="28"/>
+      <c r="A149" s="25"/>
+      <c r="F149" s="27"/>
     </row>
     <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="26"/>
-      <c r="F150" s="28"/>
+      <c r="A150" s="25"/>
+      <c r="F150" s="27"/>
     </row>
     <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="26"/>
-      <c r="F151" s="28"/>
+      <c r="A151" s="25"/>
+      <c r="F151" s="27"/>
     </row>
     <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="26"/>
-      <c r="F152" s="28"/>
+      <c r="A152" s="25"/>
+      <c r="F152" s="27"/>
     </row>
     <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="26"/>
-      <c r="F153" s="28"/>
+      <c r="A153" s="25"/>
+      <c r="F153" s="27"/>
     </row>
     <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="26"/>
-      <c r="F154" s="28"/>
+      <c r="A154" s="25"/>
+      <c r="F154" s="27"/>
     </row>
     <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="26"/>
-      <c r="F155" s="28"/>
+      <c r="A155" s="25"/>
+      <c r="F155" s="27"/>
     </row>
     <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="26"/>
-      <c r="F156" s="28"/>
+      <c r="A156" s="25"/>
+      <c r="F156" s="27"/>
     </row>
     <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="26"/>
-      <c r="F157" s="28"/>
+      <c r="A157" s="25"/>
+      <c r="F157" s="27"/>
     </row>
     <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="26"/>
-      <c r="F158" s="28"/>
+      <c r="A158" s="25"/>
+      <c r="F158" s="27"/>
     </row>
     <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="26"/>
-      <c r="F159" s="28"/>
+      <c r="A159" s="25"/>
+      <c r="F159" s="27"/>
     </row>
     <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="26"/>
-      <c r="F160" s="28"/>
+      <c r="A160" s="25"/>
+      <c r="F160" s="27"/>
     </row>
     <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="26"/>
-      <c r="F161" s="28"/>
+      <c r="A161" s="25"/>
+      <c r="F161" s="27"/>
     </row>
     <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="26"/>
-      <c r="F162" s="28"/>
+      <c r="A162" s="25"/>
+      <c r="F162" s="27"/>
     </row>
     <row r="163" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="26"/>
-      <c r="F163" s="28"/>
+      <c r="A163" s="25"/>
+      <c r="F163" s="27"/>
     </row>
     <row r="164" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="26"/>
-      <c r="F164" s="28"/>
+      <c r="A164" s="25"/>
+      <c r="F164" s="27"/>
     </row>
     <row r="165" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="26"/>
-      <c r="F165" s="28"/>
+      <c r="A165" s="25"/>
+      <c r="F165" s="27"/>
     </row>
     <row r="166" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="26"/>
-      <c r="F166" s="28"/>
+      <c r="A166" s="25"/>
+      <c r="F166" s="27"/>
     </row>
     <row r="167" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="26"/>
-      <c r="F167" s="28"/>
+      <c r="A167" s="25"/>
+      <c r="F167" s="27"/>
     </row>
     <row r="168" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="26"/>
-      <c r="F168" s="28"/>
+      <c r="A168" s="25"/>
+      <c r="F168" s="27"/>
     </row>
     <row r="169" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="26"/>
-      <c r="F169" s="28"/>
+      <c r="A169" s="25"/>
+      <c r="F169" s="27"/>
     </row>
     <row r="170" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="26"/>
-      <c r="F170" s="28"/>
+      <c r="A170" s="25"/>
+      <c r="F170" s="27"/>
     </row>
     <row r="171" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="26"/>
-      <c r="F171" s="28"/>
+      <c r="A171" s="25"/>
+      <c r="F171" s="27"/>
     </row>
     <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="26"/>
-      <c r="F172" s="28"/>
+      <c r="A172" s="25"/>
+      <c r="F172" s="27"/>
     </row>
     <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="26"/>
-      <c r="F173" s="28"/>
+      <c r="A173" s="25"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="26"/>
-      <c r="F174" s="28"/>
+      <c r="A174" s="25"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="26"/>
-      <c r="F175" s="28"/>
+      <c r="A175" s="25"/>
+      <c r="F175" s="27"/>
     </row>
     <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="26"/>
-      <c r="F176" s="28"/>
+      <c r="A176" s="25"/>
+      <c r="F176" s="27"/>
     </row>
     <row r="177" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="26"/>
-      <c r="F177" s="28"/>
+      <c r="A177" s="25"/>
+      <c r="F177" s="27"/>
     </row>
     <row r="178" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="26"/>
-      <c r="F178" s="28"/>
+      <c r="A178" s="25"/>
+      <c r="F178" s="27"/>
     </row>
     <row r="179" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="26"/>
-      <c r="F179" s="28"/>
+      <c r="A179" s="25"/>
+      <c r="F179" s="27"/>
     </row>
     <row r="180" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="26"/>
-      <c r="F180" s="28"/>
+      <c r="A180" s="25"/>
+      <c r="F180" s="27"/>
     </row>
     <row r="181" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="26"/>
-      <c r="F181" s="28"/>
+      <c r="A181" s="25"/>
+      <c r="F181" s="27"/>
     </row>
     <row r="182" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="26"/>
-      <c r="F182" s="28"/>
+      <c r="A182" s="25"/>
+      <c r="F182" s="27"/>
     </row>
     <row r="183" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="26"/>
-      <c r="F183" s="28"/>
+      <c r="A183" s="25"/>
+      <c r="F183" s="27"/>
     </row>
     <row r="184" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="26"/>
-      <c r="F184" s="28"/>
+      <c r="A184" s="25"/>
+      <c r="F184" s="27"/>
     </row>
     <row r="185" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="26"/>
-      <c r="F185" s="28"/>
+      <c r="A185" s="25"/>
+      <c r="F185" s="27"/>
     </row>
     <row r="186" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="26"/>
-      <c r="F186" s="28"/>
+      <c r="A186" s="25"/>
+      <c r="F186" s="27"/>
     </row>
     <row r="187" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="26"/>
-      <c r="F187" s="28"/>
+      <c r="A187" s="25"/>
+      <c r="F187" s="27"/>
     </row>
     <row r="188" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="26"/>
-      <c r="F188" s="28"/>
+      <c r="A188" s="25"/>
+      <c r="F188" s="27"/>
     </row>
     <row r="189" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="26"/>
-      <c r="F189" s="28"/>
+      <c r="A189" s="25"/>
+      <c r="F189" s="27"/>
     </row>
     <row r="190" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="26"/>
-      <c r="F190" s="28"/>
+      <c r="A190" s="25"/>
+      <c r="F190" s="27"/>
     </row>
     <row r="191" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="26"/>
-      <c r="F191" s="28"/>
+      <c r="A191" s="25"/>
+      <c r="F191" s="27"/>
     </row>
     <row r="192" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="26"/>
-      <c r="F192" s="28"/>
+      <c r="A192" s="25"/>
+      <c r="F192" s="27"/>
     </row>
     <row r="193" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="26"/>
-      <c r="F193" s="28"/>
+      <c r="A193" s="25"/>
+      <c r="F193" s="27"/>
     </row>
     <row r="194" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="26"/>
-      <c r="F194" s="28"/>
+      <c r="A194" s="25"/>
+      <c r="F194" s="27"/>
     </row>
     <row r="195" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="26"/>
-      <c r="F195" s="28"/>
+      <c r="A195" s="25"/>
+      <c r="F195" s="27"/>
     </row>
     <row r="196" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="26"/>
-      <c r="F196" s="28"/>
+      <c r="A196" s="25"/>
+      <c r="F196" s="27"/>
     </row>
     <row r="197" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="26"/>
-      <c r="F197" s="28"/>
+      <c r="A197" s="25"/>
+      <c r="F197" s="27"/>
     </row>
     <row r="198" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="26"/>
-      <c r="F198" s="28"/>
+      <c r="A198" s="25"/>
+      <c r="F198" s="27"/>
     </row>
     <row r="199" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="26"/>
-      <c r="F199" s="28"/>
+      <c r="A199" s="25"/>
+      <c r="F199" s="27"/>
     </row>
     <row r="200" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="26"/>
-      <c r="F200" s="28"/>
+      <c r="A200" s="25"/>
+      <c r="F200" s="27"/>
     </row>
     <row r="201" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="26"/>
-      <c r="F201" s="28"/>
+      <c r="A201" s="25"/>
+      <c r="F201" s="27"/>
     </row>
     <row r="202" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="26"/>
-      <c r="F202" s="28"/>
+      <c r="A202" s="25"/>
+      <c r="F202" s="27"/>
     </row>
     <row r="203" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="26"/>
-      <c r="F203" s="28"/>
+      <c r="A203" s="25"/>
+      <c r="F203" s="27"/>
     </row>
     <row r="204" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="26"/>
-      <c r="F204" s="28"/>
+      <c r="A204" s="25"/>
+      <c r="F204" s="27"/>
     </row>
     <row r="205" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="26"/>
-      <c r="F205" s="28"/>
+      <c r="A205" s="25"/>
+      <c r="F205" s="27"/>
     </row>
     <row r="206" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="26"/>
-      <c r="F206" s="28"/>
+      <c r="A206" s="25"/>
+      <c r="F206" s="27"/>
     </row>
     <row r="207" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="26"/>
-      <c r="F207" s="28"/>
+      <c r="A207" s="25"/>
+      <c r="F207" s="27"/>
     </row>
     <row r="208" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="26"/>
-      <c r="F208" s="28"/>
+      <c r="A208" s="25"/>
+      <c r="F208" s="27"/>
     </row>
     <row r="209" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="26"/>
-      <c r="F209" s="28"/>
+      <c r="A209" s="25"/>
+      <c r="F209" s="27"/>
     </row>
     <row r="210" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="26"/>
-      <c r="F210" s="28"/>
+      <c r="A210" s="25"/>
+      <c r="F210" s="27"/>
     </row>
     <row r="211" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="26"/>
-      <c r="F211" s="28"/>
+      <c r="A211" s="25"/>
+      <c r="F211" s="27"/>
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="26"/>
-      <c r="F212" s="28"/>
+      <c r="A212" s="25"/>
+      <c r="F212" s="27"/>
     </row>
     <row r="213" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="26"/>
-      <c r="F213" s="28"/>
+      <c r="A213" s="25"/>
+      <c r="F213" s="27"/>
     </row>
     <row r="214" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="26"/>
-      <c r="F214" s="28"/>
+      <c r="A214" s="25"/>
+      <c r="F214" s="27"/>
     </row>
     <row r="215" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="26"/>
-      <c r="F215" s="28"/>
+      <c r="A215" s="25"/>
+      <c r="F215" s="27"/>
     </row>
     <row r="216" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="26"/>
-      <c r="F216" s="28"/>
+      <c r="A216" s="25"/>
+      <c r="F216" s="27"/>
     </row>
     <row r="217" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="26"/>
-      <c r="F217" s="28"/>
+      <c r="A217" s="25"/>
+      <c r="F217" s="27"/>
     </row>
     <row r="218" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="26"/>
-      <c r="F218" s="28"/>
+      <c r="A218" s="25"/>
+      <c r="F218" s="27"/>
     </row>
     <row r="219" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="26"/>
-      <c r="F219" s="28"/>
+      <c r="A219" s="25"/>
+      <c r="F219" s="27"/>
     </row>
     <row r="220" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="26"/>
-      <c r="F220" s="28"/>
+      <c r="A220" s="25"/>
+      <c r="F220" s="27"/>
     </row>
     <row r="221" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="26"/>
-      <c r="F221" s="28"/>
+      <c r="A221" s="25"/>
+      <c r="F221" s="27"/>
     </row>
     <row r="222" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="26"/>
-      <c r="F222" s="28"/>
+      <c r="A222" s="25"/>
+      <c r="F222" s="27"/>
     </row>
     <row r="223" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="26"/>
-      <c r="F223" s="28"/>
+      <c r="A223" s="25"/>
+      <c r="F223" s="27"/>
     </row>
     <row r="224" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="26"/>
-      <c r="F224" s="28"/>
+      <c r="A224" s="25"/>
+      <c r="F224" s="27"/>
     </row>
     <row r="225" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="26"/>
-      <c r="F225" s="28"/>
+      <c r="A225" s="25"/>
+      <c r="F225" s="27"/>
     </row>
     <row r="226" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="26"/>
-      <c r="F226" s="28"/>
+      <c r="A226" s="25"/>
+      <c r="F226" s="27"/>
     </row>
     <row r="227" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="26"/>
-      <c r="F227" s="28"/>
+      <c r="A227" s="25"/>
+      <c r="F227" s="27"/>
     </row>
     <row r="228" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="26"/>
-      <c r="F228" s="28"/>
+      <c r="A228" s="25"/>
+      <c r="F228" s="27"/>
     </row>
     <row r="229" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="26"/>
-      <c r="F229" s="28"/>
+      <c r="A229" s="25"/>
+      <c r="F229" s="27"/>
     </row>
     <row r="230" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="26"/>
-      <c r="F230" s="28"/>
+      <c r="A230" s="25"/>
+      <c r="F230" s="27"/>
     </row>
     <row r="231" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="26"/>
-      <c r="F231" s="28"/>
+      <c r="A231" s="25"/>
+      <c r="F231" s="27"/>
     </row>
     <row r="232" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="26"/>
-      <c r="F232" s="28"/>
+      <c r="A232" s="25"/>
+      <c r="F232" s="27"/>
     </row>
     <row r="233" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="26"/>
-      <c r="F233" s="28"/>
+      <c r="A233" s="25"/>
+      <c r="F233" s="27"/>
     </row>
     <row r="234" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="26"/>
-      <c r="F234" s="28"/>
+      <c r="A234" s="25"/>
+      <c r="F234" s="27"/>
     </row>
     <row r="235" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="26"/>
-      <c r="F235" s="28"/>
+      <c r="A235" s="25"/>
+      <c r="F235" s="27"/>
     </row>
     <row r="236" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="26"/>
-      <c r="F236" s="28"/>
+      <c r="A236" s="25"/>
+      <c r="F236" s="27"/>
     </row>
     <row r="237" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="26"/>
-      <c r="F237" s="28"/>
+      <c r="A237" s="25"/>
+      <c r="F237" s="27"/>
     </row>
     <row r="238" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="26"/>
-      <c r="F238" s="28"/>
+      <c r="A238" s="25"/>
+      <c r="F238" s="27"/>
     </row>
     <row r="239" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="26"/>
-      <c r="F239" s="28"/>
+      <c r="A239" s="25"/>
+      <c r="F239" s="27"/>
     </row>
     <row r="240" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="26"/>
-      <c r="F240" s="28"/>
+      <c r="A240" s="25"/>
+      <c r="F240" s="27"/>
     </row>
     <row r="241" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="26"/>
-      <c r="F241" s="28"/>
+      <c r="A241" s="25"/>
+      <c r="F241" s="27"/>
     </row>
     <row r="242" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="26"/>
-      <c r="F242" s="28"/>
+      <c r="A242" s="25"/>
+      <c r="F242" s="27"/>
     </row>
     <row r="243" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="26"/>
-      <c r="F243" s="28"/>
+      <c r="A243" s="25"/>
+      <c r="F243" s="27"/>
     </row>
     <row r="244" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="26"/>
-      <c r="F244" s="28"/>
+      <c r="A244" s="25"/>
+      <c r="F244" s="27"/>
     </row>
     <row r="245" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="26"/>
-      <c r="F245" s="28"/>
+      <c r="A245" s="25"/>
+      <c r="F245" s="27"/>
     </row>
     <row r="246" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="26"/>
-      <c r="F246" s="28"/>
+      <c r="A246" s="25"/>
+      <c r="F246" s="27"/>
     </row>
     <row r="247" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="26"/>
-      <c r="F247" s="28"/>
+      <c r="A247" s="25"/>
+      <c r="F247" s="27"/>
     </row>
     <row r="248" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="26"/>
-      <c r="F248" s="28"/>
+      <c r="A248" s="25"/>
+      <c r="F248" s="27"/>
     </row>
     <row r="249" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="26"/>
-      <c r="F249" s="28"/>
+      <c r="A249" s="25"/>
+      <c r="F249" s="27"/>
     </row>
     <row r="250" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="26"/>
-      <c r="F250" s="28"/>
+      <c r="A250" s="25"/>
+      <c r="F250" s="27"/>
     </row>
     <row r="251" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="26"/>
-      <c r="F251" s="28"/>
+      <c r="A251" s="25"/>
+      <c r="F251" s="27"/>
     </row>
     <row r="252" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="26"/>
-      <c r="F252" s="28"/>
+      <c r="A252" s="25"/>
+      <c r="F252" s="27"/>
     </row>
     <row r="253" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="26"/>
-      <c r="F253" s="28"/>
+      <c r="A253" s="25"/>
+      <c r="F253" s="27"/>
     </row>
     <row r="254" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="26"/>
-      <c r="F254" s="28"/>
+      <c r="A254" s="25"/>
+      <c r="F254" s="27"/>
     </row>
     <row r="255" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="26"/>
-      <c r="F255" s="28"/>
+      <c r="A255" s="25"/>
+      <c r="F255" s="27"/>
     </row>
     <row r="256" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="26"/>
-      <c r="F256" s="28"/>
+      <c r="A256" s="25"/>
+      <c r="F256" s="27"/>
     </row>
     <row r="257" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="26"/>
-      <c r="F257" s="28"/>
+      <c r="A257" s="25"/>
+      <c r="F257" s="27"/>
     </row>
     <row r="258" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="26"/>
-      <c r="F258" s="28"/>
+      <c r="A258" s="25"/>
+      <c r="F258" s="27"/>
     </row>
     <row r="259" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="26"/>
-      <c r="F259" s="28"/>
+      <c r="A259" s="25"/>
+      <c r="F259" s="27"/>
     </row>
     <row r="260" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="26"/>
-      <c r="F260" s="28"/>
+      <c r="A260" s="25"/>
+      <c r="F260" s="27"/>
     </row>
     <row r="261" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="26"/>
-      <c r="F261" s="28"/>
+      <c r="A261" s="25"/>
+      <c r="F261" s="27"/>
     </row>
     <row r="262" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="26"/>
-      <c r="F262" s="28"/>
+      <c r="A262" s="25"/>
+      <c r="F262" s="27"/>
     </row>
     <row r="263" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="26"/>
-      <c r="F263" s="28"/>
+      <c r="A263" s="25"/>
+      <c r="F263" s="27"/>
     </row>
     <row r="264" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="26"/>
-      <c r="F264" s="28"/>
+      <c r="A264" s="25"/>
+      <c r="F264" s="27"/>
     </row>
     <row r="265" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="26"/>
-      <c r="F265" s="28"/>
+      <c r="A265" s="25"/>
+      <c r="F265" s="27"/>
     </row>
     <row r="266" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="26"/>
-      <c r="F266" s="28"/>
+      <c r="A266" s="25"/>
+      <c r="F266" s="27"/>
     </row>
     <row r="267" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="26"/>
-      <c r="F267" s="28"/>
+      <c r="A267" s="25"/>
+      <c r="F267" s="27"/>
     </row>
     <row r="268" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="26"/>
-      <c r="F268" s="28"/>
+      <c r="A268" s="25"/>
+      <c r="F268" s="27"/>
     </row>
     <row r="269" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="26"/>
-      <c r="F269" s="28"/>
+      <c r="A269" s="25"/>
+      <c r="F269" s="27"/>
     </row>
     <row r="270" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="26"/>
-      <c r="F270" s="28"/>
+      <c r="A270" s="25"/>
+      <c r="F270" s="27"/>
     </row>
     <row r="271" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="26"/>
-      <c r="F271" s="28"/>
+      <c r="A271" s="25"/>
+      <c r="F271" s="27"/>
     </row>
     <row r="272" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="26"/>
-      <c r="F272" s="28"/>
+      <c r="A272" s="25"/>
+      <c r="F272" s="27"/>
     </row>
     <row r="273" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="26"/>
-      <c r="F273" s="28"/>
+      <c r="A273" s="25"/>
+      <c r="F273" s="27"/>
     </row>
     <row r="274" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="26"/>
-      <c r="F274" s="28"/>
+      <c r="A274" s="25"/>
+      <c r="F274" s="27"/>
     </row>
     <row r="275" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="26"/>
-      <c r="F275" s="28"/>
+      <c r="A275" s="25"/>
+      <c r="F275" s="27"/>
     </row>
     <row r="276" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="26"/>
-      <c r="F276" s="28"/>
+      <c r="A276" s="25"/>
+      <c r="F276" s="27"/>
     </row>
     <row r="277" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="26"/>
-      <c r="F277" s="28"/>
+      <c r="A277" s="25"/>
+      <c r="F277" s="27"/>
     </row>
     <row r="278" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="26"/>
-      <c r="F278" s="28"/>
+      <c r="A278" s="25"/>
+      <c r="F278" s="27"/>
     </row>
     <row r="279" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="26"/>
-      <c r="F279" s="28"/>
+      <c r="A279" s="25"/>
+      <c r="F279" s="27"/>
     </row>
     <row r="280" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="26"/>
-      <c r="F280" s="28"/>
+      <c r="A280" s="25"/>
+      <c r="F280" s="27"/>
     </row>
     <row r="281" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="26"/>
-      <c r="F281" s="28"/>
+      <c r="A281" s="25"/>
+      <c r="F281" s="27"/>
     </row>
     <row r="282" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="26"/>
-      <c r="F282" s="28"/>
+      <c r="A282" s="25"/>
+      <c r="F282" s="27"/>
     </row>
     <row r="283" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="26"/>
-      <c r="F283" s="28"/>
+      <c r="A283" s="25"/>
+      <c r="F283" s="27"/>
     </row>
     <row r="284" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="26"/>
-      <c r="F284" s="28"/>
+      <c r="A284" s="25"/>
+      <c r="F284" s="27"/>
     </row>
     <row r="285" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="26"/>
-      <c r="F285" s="28"/>
+      <c r="A285" s="25"/>
+      <c r="F285" s="27"/>
     </row>
     <row r="286" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="26"/>
-      <c r="F286" s="28"/>
+      <c r="A286" s="25"/>
+      <c r="F286" s="27"/>
     </row>
     <row r="287" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="26"/>
-      <c r="F287" s="28"/>
+      <c r="A287" s="25"/>
+      <c r="F287" s="27"/>
     </row>
     <row r="288" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="26"/>
-      <c r="F288" s="28"/>
+      <c r="A288" s="25"/>
+      <c r="F288" s="27"/>
     </row>
     <row r="289" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="26"/>
-      <c r="F289" s="28"/>
+      <c r="A289" s="25"/>
+      <c r="F289" s="27"/>
     </row>
     <row r="290" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="26"/>
-      <c r="F290" s="28"/>
+      <c r="A290" s="25"/>
+      <c r="F290" s="27"/>
     </row>
     <row r="291" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="26"/>
-      <c r="F291" s="28"/>
+      <c r="A291" s="25"/>
+      <c r="F291" s="27"/>
     </row>
     <row r="292" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="26"/>
-      <c r="F292" s="28"/>
+      <c r="A292" s="25"/>
+      <c r="F292" s="27"/>
     </row>
     <row r="293" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="26"/>
-      <c r="F293" s="28"/>
+      <c r="A293" s="25"/>
+      <c r="F293" s="27"/>
     </row>
     <row r="294" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="26"/>
-      <c r="F294" s="28"/>
+      <c r="A294" s="25"/>
+      <c r="F294" s="27"/>
     </row>
     <row r="295" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="26"/>
-      <c r="F295" s="28"/>
+      <c r="A295" s="25"/>
+      <c r="F295" s="27"/>
     </row>
     <row r="296" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="26"/>
-      <c r="F296" s="28"/>
+      <c r="A296" s="25"/>
+      <c r="F296" s="27"/>
     </row>
     <row r="297" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="26"/>
-      <c r="F297" s="28"/>
+      <c r="A297" s="25"/>
+      <c r="F297" s="27"/>
     </row>
     <row r="298" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="26"/>
-      <c r="F298" s="28"/>
+      <c r="A298" s="25"/>
+      <c r="F298" s="27"/>
     </row>
     <row r="299" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="26"/>
-      <c r="F299" s="28"/>
+      <c r="A299" s="25"/>
+      <c r="F299" s="27"/>
     </row>
     <row r="300" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="26"/>
-      <c r="F300" s="28"/>
+      <c r="A300" s="25"/>
+      <c r="F300" s="27"/>
     </row>
     <row r="301" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="26"/>
-      <c r="F301" s="28"/>
+      <c r="A301" s="25"/>
+      <c r="F301" s="27"/>
     </row>
     <row r="302" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="26"/>
-      <c r="F302" s="28"/>
+      <c r="A302" s="25"/>
+      <c r="F302" s="27"/>
     </row>
     <row r="303" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="26"/>
-      <c r="F303" s="28"/>
+      <c r="A303" s="25"/>
+      <c r="F303" s="27"/>
     </row>
     <row r="304" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="26"/>
-      <c r="F304" s="28"/>
+      <c r="A304" s="25"/>
+      <c r="F304" s="27"/>
     </row>
     <row r="305" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="26"/>
-      <c r="F305" s="28"/>
+      <c r="A305" s="25"/>
+      <c r="F305" s="27"/>
     </row>
     <row r="306" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="26"/>
-      <c r="F306" s="28"/>
+      <c r="A306" s="25"/>
+      <c r="F306" s="27"/>
     </row>
     <row r="307" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="26"/>
-      <c r="F307" s="28"/>
+      <c r="A307" s="25"/>
+      <c r="F307" s="27"/>
     </row>
     <row r="308" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="26"/>
-      <c r="F308" s="28"/>
+      <c r="A308" s="25"/>
+      <c r="F308" s="27"/>
     </row>
     <row r="309" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="26"/>
-      <c r="F309" s="28"/>
+      <c r="A309" s="25"/>
+      <c r="F309" s="27"/>
     </row>
     <row r="310" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="26"/>
-      <c r="F310" s="28"/>
+      <c r="A310" s="25"/>
+      <c r="F310" s="27"/>
     </row>
     <row r="311" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="26"/>
-      <c r="F311" s="28"/>
+      <c r="A311" s="25"/>
+      <c r="F311" s="27"/>
     </row>
     <row r="312" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="26"/>
-      <c r="F312" s="28"/>
+      <c r="A312" s="25"/>
+      <c r="F312" s="27"/>
     </row>
     <row r="313" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="26"/>
-      <c r="F313" s="28"/>
+      <c r="A313" s="25"/>
+      <c r="F313" s="27"/>
     </row>
     <row r="314" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="26"/>
-      <c r="F314" s="28"/>
+      <c r="A314" s="25"/>
+      <c r="F314" s="27"/>
     </row>
     <row r="315" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="26"/>
-      <c r="F315" s="28"/>
+      <c r="A315" s="25"/>
+      <c r="F315" s="27"/>
     </row>
     <row r="316" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="26"/>
-      <c r="F316" s="28"/>
+      <c r="A316" s="25"/>
+      <c r="F316" s="27"/>
     </row>
     <row r="317" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="26"/>
-      <c r="F317" s="28"/>
+      <c r="A317" s="25"/>
+      <c r="F317" s="27"/>
     </row>
     <row r="318" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="26"/>
-      <c r="F318" s="28"/>
+      <c r="A318" s="25"/>
+      <c r="F318" s="27"/>
     </row>
     <row r="319" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="26"/>
-      <c r="F319" s="28"/>
+      <c r="A319" s="25"/>
+      <c r="F319" s="27"/>
     </row>
     <row r="320" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="26"/>
-      <c r="F320" s="28"/>
+      <c r="A320" s="25"/>
+      <c r="F320" s="27"/>
     </row>
     <row r="321" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="26"/>
-      <c r="F321" s="28"/>
+      <c r="A321" s="25"/>
+      <c r="F321" s="27"/>
     </row>
     <row r="322" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="26"/>
-      <c r="F322" s="28"/>
+      <c r="A322" s="25"/>
+      <c r="F322" s="27"/>
     </row>
     <row r="323" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="26"/>
-      <c r="F323" s="28"/>
+      <c r="A323" s="25"/>
+      <c r="F323" s="27"/>
     </row>
     <row r="324" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="26"/>
-      <c r="F324" s="28"/>
+      <c r="A324" s="25"/>
+      <c r="F324" s="27"/>
     </row>
     <row r="325" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="26"/>
-      <c r="F325" s="28"/>
+      <c r="A325" s="25"/>
+      <c r="F325" s="27"/>
     </row>
     <row r="326" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="26"/>
-      <c r="F326" s="28"/>
+      <c r="A326" s="25"/>
+      <c r="F326" s="27"/>
     </row>
     <row r="327" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="26"/>
-      <c r="F327" s="28"/>
+      <c r="A327" s="25"/>
+      <c r="F327" s="27"/>
     </row>
     <row r="328" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="26"/>
-      <c r="F328" s="28"/>
+      <c r="A328" s="25"/>
+      <c r="F328" s="27"/>
     </row>
     <row r="329" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="26"/>
-      <c r="F329" s="28"/>
+      <c r="A329" s="25"/>
+      <c r="F329" s="27"/>
     </row>
     <row r="330" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="26"/>
-      <c r="F330" s="28"/>
+      <c r="A330" s="25"/>
+      <c r="F330" s="27"/>
     </row>
     <row r="331" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="26"/>
-      <c r="F331" s="28"/>
+      <c r="A331" s="25"/>
+      <c r="F331" s="27"/>
     </row>
     <row r="332" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="26"/>
-      <c r="F332" s="28"/>
+      <c r="A332" s="25"/>
+      <c r="F332" s="27"/>
     </row>
     <row r="333" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="26"/>
-      <c r="F333" s="28"/>
+      <c r="A333" s="25"/>
+      <c r="F333" s="27"/>
     </row>
     <row r="334" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="26"/>
-      <c r="F334" s="28"/>
+      <c r="A334" s="25"/>
+      <c r="F334" s="27"/>
     </row>
     <row r="335" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="26"/>
-      <c r="F335" s="28"/>
+      <c r="A335" s="25"/>
+      <c r="F335" s="27"/>
     </row>
     <row r="336" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="26"/>
-      <c r="F336" s="28"/>
+      <c r="A336" s="25"/>
+      <c r="F336" s="27"/>
     </row>
     <row r="337" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="26"/>
-      <c r="F337" s="28"/>
+      <c r="A337" s="25"/>
+      <c r="F337" s="27"/>
     </row>
     <row r="338" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="26"/>
-      <c r="F338" s="28"/>
+      <c r="A338" s="25"/>
+      <c r="F338" s="27"/>
     </row>
     <row r="339" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="26"/>
-      <c r="F339" s="28"/>
+      <c r="A339" s="25"/>
+      <c r="F339" s="27"/>
     </row>
     <row r="340" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="26"/>
-      <c r="F340" s="28"/>
+      <c r="A340" s="25"/>
+      <c r="F340" s="27"/>
     </row>
     <row r="341" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="26"/>
-      <c r="F341" s="28"/>
+      <c r="A341" s="25"/>
+      <c r="F341" s="27"/>
     </row>
     <row r="342" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="26"/>
-      <c r="F342" s="28"/>
+      <c r="A342" s="25"/>
+      <c r="F342" s="27"/>
     </row>
     <row r="343" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="26"/>
-      <c r="F343" s="28"/>
+      <c r="A343" s="25"/>
+      <c r="F343" s="27"/>
     </row>
     <row r="344" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="26"/>
-      <c r="F344" s="28"/>
+      <c r="A344" s="25"/>
+      <c r="F344" s="27"/>
     </row>
     <row r="345" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="26"/>
-      <c r="F345" s="28"/>
+      <c r="A345" s="25"/>
+      <c r="F345" s="27"/>
     </row>
     <row r="346" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="26"/>
-      <c r="F346" s="28"/>
+      <c r="A346" s="25"/>
+      <c r="F346" s="27"/>
     </row>
     <row r="347" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="26"/>
-      <c r="F347" s="28"/>
+      <c r="A347" s="25"/>
+      <c r="F347" s="27"/>
     </row>
     <row r="348" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="26"/>
-      <c r="F348" s="28"/>
+      <c r="A348" s="25"/>
+      <c r="F348" s="27"/>
     </row>
     <row r="349" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="26"/>
-      <c r="F349" s="28"/>
+      <c r="A349" s="25"/>
+      <c r="F349" s="27"/>
     </row>
     <row r="350" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="26"/>
-      <c r="F350" s="28"/>
+      <c r="A350" s="25"/>
+      <c r="F350" s="27"/>
     </row>
     <row r="351" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="26"/>
-      <c r="F351" s="28"/>
+      <c r="A351" s="25"/>
+      <c r="F351" s="27"/>
     </row>
     <row r="352" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="26"/>
-      <c r="F352" s="28"/>
+      <c r="A352" s="25"/>
+      <c r="F352" s="27"/>
     </row>
     <row r="353" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="26"/>
-      <c r="F353" s="28"/>
+      <c r="A353" s="25"/>
+      <c r="F353" s="27"/>
     </row>
     <row r="354" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="26"/>
-      <c r="F354" s="28"/>
+      <c r="A354" s="25"/>
+      <c r="F354" s="27"/>
     </row>
     <row r="355" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="26"/>
-      <c r="F355" s="28"/>
+      <c r="A355" s="25"/>
+      <c r="F355" s="27"/>
     </row>
     <row r="356" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="26"/>
-      <c r="F356" s="28"/>
+      <c r="A356" s="25"/>
+      <c r="F356" s="27"/>
     </row>
     <row r="357" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="26"/>
-      <c r="F357" s="28"/>
+      <c r="A357" s="25"/>
+      <c r="F357" s="27"/>
     </row>
     <row r="358" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="26"/>
-      <c r="F358" s="28"/>
+      <c r="A358" s="25"/>
+      <c r="F358" s="27"/>
     </row>
     <row r="359" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="26"/>
-      <c r="F359" s="28"/>
+      <c r="A359" s="25"/>
+      <c r="F359" s="27"/>
     </row>
     <row r="360" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="26"/>
-      <c r="F360" s="28"/>
+      <c r="A360" s="25"/>
+      <c r="F360" s="27"/>
     </row>
     <row r="361" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="26"/>
-      <c r="F361" s="28"/>
+      <c r="A361" s="25"/>
+      <c r="F361" s="27"/>
     </row>
     <row r="362" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="26"/>
-      <c r="F362" s="28"/>
+      <c r="A362" s="25"/>
+      <c r="F362" s="27"/>
     </row>
     <row r="363" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="26"/>
-      <c r="F363" s="28"/>
+      <c r="A363" s="25"/>
+      <c r="F363" s="27"/>
     </row>
     <row r="364" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="26"/>
-      <c r="F364" s="28"/>
+      <c r="A364" s="25"/>
+      <c r="F364" s="27"/>
     </row>
     <row r="365" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="26"/>
-      <c r="F365" s="28"/>
+      <c r="A365" s="25"/>
+      <c r="F365" s="27"/>
     </row>
     <row r="366" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="26"/>
-      <c r="F366" s="28"/>
+      <c r="A366" s="25"/>
+      <c r="F366" s="27"/>
     </row>
     <row r="367" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="26"/>
-      <c r="F367" s="28"/>
+      <c r="A367" s="25"/>
+      <c r="F367" s="27"/>
     </row>
     <row r="368" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="26"/>
-      <c r="F368" s="28"/>
+      <c r="A368" s="25"/>
+      <c r="F368" s="27"/>
     </row>
     <row r="369" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="26"/>
-      <c r="F369" s="28"/>
+      <c r="A369" s="25"/>
+      <c r="F369" s="27"/>
     </row>
     <row r="370" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="26"/>
-      <c r="F370" s="28"/>
+      <c r="A370" s="25"/>
+      <c r="F370" s="27"/>
     </row>
     <row r="371" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="26"/>
-      <c r="F371" s="28"/>
+      <c r="A371" s="25"/>
+      <c r="F371" s="27"/>
     </row>
     <row r="372" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="26"/>
-      <c r="F372" s="28"/>
+      <c r="A372" s="25"/>
+      <c r="F372" s="27"/>
     </row>
     <row r="373" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="26"/>
-      <c r="F373" s="28"/>
+      <c r="A373" s="25"/>
+      <c r="F373" s="27"/>
     </row>
     <row r="374" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="26"/>
-      <c r="F374" s="28"/>
+      <c r="A374" s="25"/>
+      <c r="F374" s="27"/>
     </row>
     <row r="375" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="26"/>
-      <c r="F375" s="28"/>
+      <c r="A375" s="25"/>
+      <c r="F375" s="27"/>
     </row>
     <row r="376" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="26"/>
-      <c r="F376" s="28"/>
+      <c r="A376" s="25"/>
+      <c r="F376" s="27"/>
     </row>
     <row r="377" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="26"/>
-      <c r="F377" s="28"/>
+      <c r="A377" s="25"/>
+      <c r="F377" s="27"/>
     </row>
     <row r="378" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="26"/>
-      <c r="F378" s="28"/>
+      <c r="A378" s="25"/>
+      <c r="F378" s="27"/>
     </row>
     <row r="379" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="26"/>
-      <c r="F379" s="28"/>
+      <c r="A379" s="25"/>
+      <c r="F379" s="27"/>
     </row>
     <row r="380" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="26"/>
-      <c r="F380" s="28"/>
+      <c r="A380" s="25"/>
+      <c r="F380" s="27"/>
     </row>
     <row r="381" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="26"/>
-      <c r="F381" s="28"/>
+      <c r="A381" s="25"/>
+      <c r="F381" s="27"/>
     </row>
     <row r="382" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="26"/>
-      <c r="F382" s="28"/>
+      <c r="A382" s="25"/>
+      <c r="F382" s="27"/>
     </row>
     <row r="383" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="26"/>
-      <c r="F383" s="28"/>
+      <c r="A383" s="25"/>
+      <c r="F383" s="27"/>
     </row>
     <row r="384" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="26"/>
-      <c r="F384" s="28"/>
+      <c r="A384" s="25"/>
+      <c r="F384" s="27"/>
     </row>
     <row r="385" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="26"/>
-      <c r="F385" s="28"/>
+      <c r="A385" s="25"/>
+      <c r="F385" s="27"/>
     </row>
     <row r="386" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="26"/>
-      <c r="F386" s="28"/>
+      <c r="A386" s="25"/>
+      <c r="F386" s="27"/>
     </row>
     <row r="387" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="26"/>
-      <c r="F387" s="28"/>
+      <c r="A387" s="25"/>
+      <c r="F387" s="27"/>
     </row>
     <row r="388" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="26"/>
-      <c r="F388" s="28"/>
+      <c r="A388" s="25"/>
+      <c r="F388" s="27"/>
     </row>
     <row r="389" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="26"/>
-      <c r="F389" s="28"/>
+      <c r="A389" s="25"/>
+      <c r="F389" s="27"/>
     </row>
     <row r="390" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="26"/>
-      <c r="F390" s="28"/>
+      <c r="A390" s="25"/>
+      <c r="F390" s="27"/>
     </row>
     <row r="391" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="26"/>
-      <c r="F391" s="28"/>
+      <c r="A391" s="25"/>
+      <c r="F391" s="27"/>
     </row>
     <row r="392" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="26"/>
-      <c r="F392" s="28"/>
+      <c r="A392" s="25"/>
+      <c r="F392" s="27"/>
     </row>
     <row r="393" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="26"/>
-      <c r="F393" s="28"/>
+      <c r="A393" s="25"/>
+      <c r="F393" s="27"/>
     </row>
     <row r="394" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="26"/>
-      <c r="F394" s="28"/>
+      <c r="A394" s="25"/>
+      <c r="F394" s="27"/>
     </row>
     <row r="395" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="26"/>
-      <c r="F395" s="28"/>
+      <c r="A395" s="25"/>
+      <c r="F395" s="27"/>
     </row>
     <row r="396" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="26"/>
-      <c r="F396" s="28"/>
+      <c r="A396" s="25"/>
+      <c r="F396" s="27"/>
     </row>
     <row r="397" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="26"/>
-      <c r="F397" s="28"/>
+      <c r="A397" s="25"/>
+      <c r="F397" s="27"/>
     </row>
     <row r="398" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="26"/>
-      <c r="F398" s="28"/>
+      <c r="A398" s="25"/>
+      <c r="F398" s="27"/>
     </row>
     <row r="399" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="26"/>
-      <c r="F399" s="28"/>
+      <c r="A399" s="25"/>
+      <c r="F399" s="27"/>
     </row>
     <row r="400" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="26"/>
-      <c r="F400" s="28"/>
+      <c r="A400" s="25"/>
+      <c r="F400" s="27"/>
     </row>
     <row r="401" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="26"/>
-      <c r="F401" s="28"/>
+      <c r="A401" s="25"/>
+      <c r="F401" s="27"/>
     </row>
     <row r="402" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="26"/>
-      <c r="F402" s="28"/>
+      <c r="A402" s="25"/>
+      <c r="F402" s="27"/>
     </row>
     <row r="403" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="26"/>
-      <c r="F403" s="28"/>
+      <c r="A403" s="25"/>
+      <c r="F403" s="27"/>
     </row>
     <row r="404" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="26"/>
-      <c r="F404" s="28"/>
+      <c r="A404" s="25"/>
+      <c r="F404" s="27"/>
     </row>
     <row r="405" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="26"/>
-      <c r="F405" s="28"/>
+      <c r="A405" s="25"/>
+      <c r="F405" s="27"/>
     </row>
     <row r="406" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="26"/>
-      <c r="F406" s="28"/>
+      <c r="A406" s="25"/>
+      <c r="F406" s="27"/>
     </row>
     <row r="407" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="26"/>
-      <c r="F407" s="28"/>
+      <c r="A407" s="25"/>
+      <c r="F407" s="27"/>
     </row>
     <row r="408" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="26"/>
-      <c r="F408" s="28"/>
+      <c r="A408" s="25"/>
+      <c r="F408" s="27"/>
     </row>
     <row r="409" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="26"/>
-      <c r="F409" s="28"/>
+      <c r="A409" s="25"/>
+      <c r="F409" s="27"/>
     </row>
     <row r="410" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="26"/>
-      <c r="F410" s="28"/>
+      <c r="A410" s="25"/>
+      <c r="F410" s="27"/>
     </row>
     <row r="411" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="26"/>
-      <c r="F411" s="28"/>
+      <c r="A411" s="25"/>
+      <c r="F411" s="27"/>
     </row>
     <row r="412" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="26"/>
-      <c r="F412" s="28"/>
+      <c r="A412" s="25"/>
+      <c r="F412" s="27"/>
     </row>
     <row r="413" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="26"/>
-      <c r="F413" s="28"/>
+      <c r="A413" s="25"/>
+      <c r="F413" s="27"/>
     </row>
     <row r="414" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="26"/>
-      <c r="F414" s="28"/>
+      <c r="A414" s="25"/>
+      <c r="F414" s="27"/>
     </row>
     <row r="415" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="26"/>
-      <c r="F415" s="28"/>
+      <c r="A415" s="25"/>
+      <c r="F415" s="27"/>
     </row>
     <row r="416" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="26"/>
-      <c r="F416" s="28"/>
+      <c r="A416" s="25"/>
+      <c r="F416" s="27"/>
     </row>
     <row r="417" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="26"/>
-      <c r="F417" s="28"/>
+      <c r="A417" s="25"/>
+      <c r="F417" s="27"/>
     </row>
     <row r="418" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="26"/>
-      <c r="F418" s="28"/>
+      <c r="A418" s="25"/>
+      <c r="F418" s="27"/>
     </row>
     <row r="419" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="26"/>
-      <c r="F419" s="28"/>
+      <c r="A419" s="25"/>
+      <c r="F419" s="27"/>
     </row>
     <row r="420" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="26"/>
-      <c r="F420" s="28"/>
+      <c r="A420" s="25"/>
+      <c r="F420" s="27"/>
     </row>
     <row r="421" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="26"/>
-      <c r="F421" s="28"/>
+      <c r="A421" s="25"/>
+      <c r="F421" s="27"/>
     </row>
     <row r="422" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="26"/>
-      <c r="F422" s="28"/>
+      <c r="A422" s="25"/>
+      <c r="F422" s="27"/>
     </row>
     <row r="423" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="26"/>
-      <c r="F423" s="28"/>
+      <c r="A423" s="25"/>
+      <c r="F423" s="27"/>
     </row>
     <row r="424" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="26"/>
-      <c r="F424" s="28"/>
+      <c r="A424" s="25"/>
+      <c r="F424" s="27"/>
     </row>
     <row r="425" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="26"/>
-      <c r="F425" s="28"/>
+      <c r="A425" s="25"/>
+      <c r="F425" s="27"/>
     </row>
     <row r="426" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="26"/>
-      <c r="F426" s="28"/>
+      <c r="A426" s="25"/>
+      <c r="F426" s="27"/>
     </row>
     <row r="427" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="26"/>
-      <c r="F427" s="28"/>
+      <c r="A427" s="25"/>
+      <c r="F427" s="27"/>
     </row>
     <row r="428" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="26"/>
-      <c r="F428" s="28"/>
+      <c r="A428" s="25"/>
+      <c r="F428" s="27"/>
     </row>
     <row r="429" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="26"/>
-      <c r="F429" s="28"/>
+      <c r="A429" s="25"/>
+      <c r="F429" s="27"/>
     </row>
     <row r="430" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="26"/>
-      <c r="F430" s="28"/>
+      <c r="A430" s="25"/>
+      <c r="F430" s="27"/>
     </row>
     <row r="431" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="26"/>
-      <c r="F431" s="28"/>
+      <c r="A431" s="25"/>
+      <c r="F431" s="27"/>
     </row>
     <row r="432" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="26"/>
-      <c r="F432" s="28"/>
+      <c r="A432" s="25"/>
+      <c r="F432" s="27"/>
     </row>
     <row r="433" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="26"/>
-      <c r="F433" s="28"/>
+      <c r="A433" s="25"/>
+      <c r="F433" s="27"/>
     </row>
     <row r="434" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="26"/>
-      <c r="F434" s="28"/>
+      <c r="A434" s="25"/>
+      <c r="F434" s="27"/>
     </row>
     <row r="435" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="26"/>
-      <c r="F435" s="28"/>
+      <c r="A435" s="25"/>
+      <c r="F435" s="27"/>
     </row>
     <row r="436" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="26"/>
-      <c r="F436" s="28"/>
+      <c r="A436" s="25"/>
+      <c r="F436" s="27"/>
     </row>
     <row r="437" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="26"/>
-      <c r="F437" s="28"/>
+      <c r="A437" s="25"/>
+      <c r="F437" s="27"/>
     </row>
     <row r="438" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="26"/>
-      <c r="F438" s="28"/>
+      <c r="A438" s="25"/>
+      <c r="F438" s="27"/>
     </row>
     <row r="439" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="26"/>
-      <c r="F439" s="28"/>
+      <c r="A439" s="25"/>
+      <c r="F439" s="27"/>
     </row>
     <row r="440" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="26"/>
-      <c r="F440" s="28"/>
+      <c r="A440" s="25"/>
+      <c r="F440" s="27"/>
     </row>
     <row r="441" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="26"/>
-      <c r="F441" s="28"/>
+      <c r="A441" s="25"/>
+      <c r="F441" s="27"/>
     </row>
     <row r="442" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="26"/>
-      <c r="F442" s="28"/>
+      <c r="A442" s="25"/>
+      <c r="F442" s="27"/>
     </row>
     <row r="443" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="26"/>
-      <c r="F443" s="28"/>
+      <c r="A443" s="25"/>
+      <c r="F443" s="27"/>
     </row>
     <row r="444" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="26"/>
-      <c r="F444" s="28"/>
+      <c r="A444" s="25"/>
+      <c r="F444" s="27"/>
     </row>
     <row r="445" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="26"/>
-      <c r="F445" s="28"/>
+      <c r="A445" s="25"/>
+      <c r="F445" s="27"/>
     </row>
     <row r="446" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="26"/>
-      <c r="F446" s="28"/>
+      <c r="A446" s="25"/>
+      <c r="F446" s="27"/>
     </row>
     <row r="447" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="26"/>
-      <c r="F447" s="28"/>
+      <c r="A447" s="25"/>
+      <c r="F447" s="27"/>
     </row>
     <row r="448" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="26"/>
-      <c r="F448" s="28"/>
+      <c r="A448" s="25"/>
+      <c r="F448" s="27"/>
     </row>
     <row r="449" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="26"/>
-      <c r="F449" s="28"/>
+      <c r="A449" s="25"/>
+      <c r="F449" s="27"/>
     </row>
     <row r="450" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="26"/>
-      <c r="F450" s="28"/>
+      <c r="A450" s="25"/>
+      <c r="F450" s="27"/>
     </row>
     <row r="451" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="26"/>
-      <c r="F451" s="28"/>
+      <c r="A451" s="25"/>
+      <c r="F451" s="27"/>
     </row>
     <row r="452" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="26"/>
-      <c r="F452" s="28"/>
+      <c r="A452" s="25"/>
+      <c r="F452" s="27"/>
     </row>
     <row r="453" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="26"/>
-      <c r="F453" s="28"/>
+      <c r="A453" s="25"/>
+      <c r="F453" s="27"/>
     </row>
     <row r="454" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="26"/>
-      <c r="F454" s="28"/>
+      <c r="A454" s="25"/>
+      <c r="F454" s="27"/>
     </row>
     <row r="455" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="26"/>
-      <c r="F455" s="28"/>
+      <c r="A455" s="25"/>
+      <c r="F455" s="27"/>
     </row>
     <row r="456" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="26"/>
-      <c r="F456" s="28"/>
+      <c r="A456" s="25"/>
+      <c r="F456" s="27"/>
     </row>
     <row r="457" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="26"/>
-      <c r="F457" s="28"/>
+      <c r="A457" s="25"/>
+      <c r="F457" s="27"/>
     </row>
     <row r="458" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="26"/>
-      <c r="F458" s="28"/>
+      <c r="A458" s="25"/>
+      <c r="F458" s="27"/>
     </row>
     <row r="459" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="26"/>
-      <c r="F459" s="28"/>
+      <c r="A459" s="25"/>
+      <c r="F459" s="27"/>
     </row>
     <row r="460" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="26"/>
-      <c r="F460" s="28"/>
+      <c r="A460" s="25"/>
+      <c r="F460" s="27"/>
     </row>
     <row r="461" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="26"/>
-      <c r="F461" s="28"/>
+      <c r="A461" s="25"/>
+      <c r="F461" s="27"/>
     </row>
     <row r="462" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="26"/>
-      <c r="F462" s="28"/>
+      <c r="A462" s="25"/>
+      <c r="F462" s="27"/>
     </row>
     <row r="463" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="26"/>
-      <c r="F463" s="28"/>
+      <c r="A463" s="25"/>
+      <c r="F463" s="27"/>
     </row>
     <row r="464" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="26"/>
-      <c r="F464" s="28"/>
+      <c r="A464" s="25"/>
+      <c r="F464" s="27"/>
     </row>
     <row r="465" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="26"/>
-      <c r="F465" s="28"/>
+      <c r="A465" s="25"/>
+      <c r="F465" s="27"/>
     </row>
     <row r="466" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="26"/>
-      <c r="F466" s="28"/>
+      <c r="A466" s="25"/>
+      <c r="F466" s="27"/>
     </row>
     <row r="467" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="26"/>
-      <c r="F467" s="28"/>
+      <c r="A467" s="25"/>
+      <c r="F467" s="27"/>
     </row>
     <row r="468" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="26"/>
-      <c r="F468" s="28"/>
+      <c r="A468" s="25"/>
+      <c r="F468" s="27"/>
     </row>
     <row r="469" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="26"/>
-      <c r="F469" s="28"/>
+      <c r="A469" s="25"/>
+      <c r="F469" s="27"/>
     </row>
     <row r="470" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="26"/>
-      <c r="F470" s="28"/>
+      <c r="A470" s="25"/>
+      <c r="F470" s="27"/>
     </row>
     <row r="471" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="26"/>
-      <c r="F471" s="28"/>
+      <c r="A471" s="25"/>
+      <c r="F471" s="27"/>
     </row>
     <row r="472" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="26"/>
-      <c r="F472" s="28"/>
+      <c r="A472" s="25"/>
+      <c r="F472" s="27"/>
     </row>
     <row r="473" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="26"/>
-      <c r="F473" s="28"/>
+      <c r="A473" s="25"/>
+      <c r="F473" s="27"/>
     </row>
     <row r="474" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="26"/>
-      <c r="F474" s="28"/>
+      <c r="A474" s="25"/>
+      <c r="F474" s="27"/>
     </row>
     <row r="475" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="26"/>
-      <c r="F475" s="28"/>
+      <c r="A475" s="25"/>
+      <c r="F475" s="27"/>
     </row>
     <row r="476" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="26"/>
-      <c r="F476" s="28"/>
+      <c r="A476" s="25"/>
+      <c r="F476" s="27"/>
     </row>
     <row r="477" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="26"/>
-      <c r="F477" s="28"/>
+      <c r="A477" s="25"/>
+      <c r="F477" s="27"/>
     </row>
     <row r="478" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="26"/>
-      <c r="F478" s="28"/>
+      <c r="A478" s="25"/>
+      <c r="F478" s="27"/>
     </row>
     <row r="479" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="26"/>
-      <c r="F479" s="28"/>
+      <c r="A479" s="25"/>
+      <c r="F479" s="27"/>
     </row>
     <row r="480" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="26"/>
-      <c r="F480" s="28"/>
+      <c r="A480" s="25"/>
+      <c r="F480" s="27"/>
     </row>
     <row r="481" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="26"/>
-      <c r="F481" s="28"/>
+      <c r="A481" s="25"/>
+      <c r="F481" s="27"/>
     </row>
     <row r="482" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="26"/>
-      <c r="F482" s="28"/>
+      <c r="A482" s="25"/>
+      <c r="F482" s="27"/>
     </row>
     <row r="483" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="26"/>
-      <c r="F483" s="28"/>
+      <c r="A483" s="25"/>
+      <c r="F483" s="27"/>
     </row>
     <row r="484" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="26"/>
-      <c r="F484" s="28"/>
+      <c r="A484" s="25"/>
+      <c r="F484" s="27"/>
     </row>
     <row r="485" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="26"/>
-      <c r="F485" s="28"/>
+      <c r="A485" s="25"/>
+      <c r="F485" s="27"/>
     </row>
     <row r="486" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="26"/>
-      <c r="F486" s="28"/>
+      <c r="A486" s="25"/>
+      <c r="F486" s="27"/>
     </row>
     <row r="487" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="26"/>
-      <c r="F487" s="28"/>
+      <c r="A487" s="25"/>
+      <c r="F487" s="27"/>
     </row>
     <row r="488" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="26"/>
-      <c r="F488" s="28"/>
+      <c r="A488" s="25"/>
+      <c r="F488" s="27"/>
     </row>
     <row r="489" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="26"/>
-      <c r="F489" s="28"/>
+      <c r="A489" s="25"/>
+      <c r="F489" s="27"/>
     </row>
     <row r="490" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="26"/>
-      <c r="F490" s="28"/>
+      <c r="A490" s="25"/>
+      <c r="F490" s="27"/>
     </row>
     <row r="491" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="26"/>
-      <c r="F491" s="28"/>
+      <c r="A491" s="25"/>
+      <c r="F491" s="27"/>
     </row>
     <row r="492" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="26"/>
-      <c r="F492" s="28"/>
+      <c r="A492" s="25"/>
+      <c r="F492" s="27"/>
     </row>
     <row r="493" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="26"/>
-      <c r="F493" s="28"/>
+      <c r="A493" s="25"/>
+      <c r="F493" s="27"/>
     </row>
     <row r="494" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="26"/>
-      <c r="F494" s="28"/>
+      <c r="A494" s="25"/>
+      <c r="F494" s="27"/>
     </row>
     <row r="495" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="26"/>
-      <c r="F495" s="28"/>
+      <c r="A495" s="25"/>
+      <c r="F495" s="27"/>
     </row>
     <row r="496" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="26"/>
-      <c r="F496" s="28"/>
+      <c r="A496" s="25"/>
+      <c r="F496" s="27"/>
     </row>
     <row r="497" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="26"/>
-      <c r="F497" s="28"/>
+      <c r="A497" s="25"/>
+      <c r="F497" s="27"/>
     </row>
     <row r="498" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="26"/>
-      <c r="F498" s="28"/>
+      <c r="A498" s="25"/>
+      <c r="F498" s="27"/>
     </row>
     <row r="499" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A499" s="26"/>
-      <c r="F499" s="28"/>
+      <c r="A499" s="25"/>
+      <c r="F499" s="27"/>
     </row>
     <row r="500" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="26"/>
-      <c r="F500" s="28"/>
+      <c r="A500" s="25"/>
+      <c r="F500" s="27"/>
     </row>
     <row r="501" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="26"/>
-      <c r="F501" s="28"/>
+      <c r="A501" s="25"/>
+      <c r="F501" s="27"/>
     </row>
     <row r="502" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="26"/>
-      <c r="F502" s="28"/>
+      <c r="A502" s="25"/>
+      <c r="F502" s="27"/>
     </row>
     <row r="503" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="26"/>
-      <c r="F503" s="28"/>
+      <c r="A503" s="25"/>
+      <c r="F503" s="27"/>
     </row>
     <row r="504" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="26"/>
-      <c r="F504" s="28"/>
+      <c r="A504" s="25"/>
+      <c r="F504" s="27"/>
     </row>
     <row r="505" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A505" s="26"/>
-      <c r="F505" s="28"/>
+      <c r="A505" s="25"/>
+      <c r="F505" s="27"/>
     </row>
     <row r="506" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A506" s="26"/>
-      <c r="F506" s="28"/>
+      <c r="A506" s="25"/>
+      <c r="F506" s="27"/>
     </row>
     <row r="507" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="26"/>
-      <c r="F507" s="28"/>
+      <c r="A507" s="25"/>
+      <c r="F507" s="27"/>
     </row>
     <row r="508" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="26"/>
-      <c r="F508" s="28"/>
+      <c r="A508" s="25"/>
+      <c r="F508" s="27"/>
     </row>
     <row r="509" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="26"/>
-      <c r="F509" s="28"/>
+      <c r="A509" s="25"/>
+      <c r="F509" s="27"/>
     </row>
     <row r="510" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="26"/>
-      <c r="F510" s="28"/>
+      <c r="A510" s="25"/>
+      <c r="F510" s="27"/>
     </row>
     <row r="511" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="26"/>
-      <c r="F511" s="28"/>
+      <c r="A511" s="25"/>
+      <c r="F511" s="27"/>
     </row>
     <row r="512" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="26"/>
-      <c r="F512" s="28"/>
+      <c r="A512" s="25"/>
+      <c r="F512" s="27"/>
     </row>
     <row r="513" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="26"/>
-      <c r="F513" s="28"/>
+      <c r="A513" s="25"/>
+      <c r="F513" s="27"/>
     </row>
     <row r="514" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="26"/>
-      <c r="F514" s="28"/>
+      <c r="A514" s="25"/>
+      <c r="F514" s="27"/>
     </row>
     <row r="515" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="26"/>
-      <c r="F515" s="28"/>
+      <c r="A515" s="25"/>
+      <c r="F515" s="27"/>
     </row>
     <row r="516" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="26"/>
-      <c r="F516" s="28"/>
+      <c r="A516" s="25"/>
+      <c r="F516" s="27"/>
     </row>
     <row r="517" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="26"/>
-      <c r="F517" s="28"/>
+      <c r="A517" s="25"/>
+      <c r="F517" s="27"/>
     </row>
     <row r="518" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="26"/>
-      <c r="F518" s="28"/>
+      <c r="A518" s="25"/>
+      <c r="F518" s="27"/>
     </row>
     <row r="519" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="26"/>
-      <c r="F519" s="28"/>
+      <c r="A519" s="25"/>
+      <c r="F519" s="27"/>
     </row>
     <row r="520" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="26"/>
-      <c r="F520" s="28"/>
+      <c r="A520" s="25"/>
+      <c r="F520" s="27"/>
     </row>
     <row r="521" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="26"/>
-      <c r="F521" s="28"/>
+      <c r="A521" s="25"/>
+      <c r="F521" s="27"/>
     </row>
     <row r="522" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="26"/>
-      <c r="F522" s="28"/>
+      <c r="A522" s="25"/>
+      <c r="F522" s="27"/>
     </row>
     <row r="523" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="26"/>
-      <c r="F523" s="28"/>
+      <c r="A523" s="25"/>
+      <c r="F523" s="27"/>
     </row>
     <row r="524" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="26"/>
-      <c r="F524" s="28"/>
+      <c r="A524" s="25"/>
+      <c r="F524" s="27"/>
     </row>
     <row r="525" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="26"/>
-      <c r="F525" s="28"/>
+      <c r="A525" s="25"/>
+      <c r="F525" s="27"/>
     </row>
     <row r="526" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="26"/>
-      <c r="F526" s="28"/>
+      <c r="A526" s="25"/>
+      <c r="F526" s="27"/>
     </row>
     <row r="527" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="26"/>
-      <c r="F527" s="28"/>
+      <c r="A527" s="25"/>
+      <c r="F527" s="27"/>
     </row>
     <row r="528" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="26"/>
-      <c r="F528" s="28"/>
+      <c r="A528" s="25"/>
+      <c r="F528" s="27"/>
     </row>
     <row r="529" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="26"/>
-      <c r="F529" s="28"/>
+      <c r="A529" s="25"/>
+      <c r="F529" s="27"/>
     </row>
     <row r="530" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="26"/>
-      <c r="F530" s="28"/>
+      <c r="A530" s="25"/>
+      <c r="F530" s="27"/>
     </row>
     <row r="531" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="26"/>
-      <c r="F531" s="28"/>
+      <c r="A531" s="25"/>
+      <c r="F531" s="27"/>
     </row>
     <row r="532" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="26"/>
-      <c r="F532" s="28"/>
+      <c r="A532" s="25"/>
+      <c r="F532" s="27"/>
     </row>
     <row r="533" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="26"/>
-      <c r="F533" s="28"/>
+      <c r="A533" s="25"/>
+      <c r="F533" s="27"/>
     </row>
     <row r="534" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="26"/>
-      <c r="F534" s="28"/>
+      <c r="A534" s="25"/>
+      <c r="F534" s="27"/>
     </row>
     <row r="535" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="26"/>
-      <c r="F535" s="28"/>
+      <c r="A535" s="25"/>
+      <c r="F535" s="27"/>
     </row>
     <row r="536" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="26"/>
-      <c r="F536" s="28"/>
+      <c r="A536" s="25"/>
+      <c r="F536" s="27"/>
     </row>
     <row r="537" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="26"/>
-      <c r="F537" s="28"/>
+      <c r="A537" s="25"/>
+      <c r="F537" s="27"/>
     </row>
     <row r="538" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="26"/>
-      <c r="F538" s="28"/>
+      <c r="A538" s="25"/>
+      <c r="F538" s="27"/>
     </row>
     <row r="539" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="26"/>
-      <c r="F539" s="28"/>
+      <c r="A539" s="25"/>
+      <c r="F539" s="27"/>
     </row>
     <row r="540" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="26"/>
-      <c r="F540" s="28"/>
+      <c r="A540" s="25"/>
+      <c r="F540" s="27"/>
     </row>
     <row r="541" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="26"/>
-      <c r="F541" s="28"/>
+      <c r="A541" s="25"/>
+      <c r="F541" s="27"/>
     </row>
     <row r="542" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="26"/>
-      <c r="F542" s="28"/>
+      <c r="A542" s="25"/>
+      <c r="F542" s="27"/>
     </row>
     <row r="543" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="26"/>
-      <c r="F543" s="28"/>
+      <c r="A543" s="25"/>
+      <c r="F543" s="27"/>
     </row>
     <row r="544" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="26"/>
-      <c r="F544" s="28"/>
+      <c r="A544" s="25"/>
+      <c r="F544" s="27"/>
     </row>
     <row r="545" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="26"/>
-      <c r="F545" s="28"/>
+      <c r="A545" s="25"/>
+      <c r="F545" s="27"/>
     </row>
     <row r="546" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="26"/>
-      <c r="F546" s="28"/>
+      <c r="A546" s="25"/>
+      <c r="F546" s="27"/>
     </row>
     <row r="547" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="26"/>
-      <c r="F547" s="28"/>
+      <c r="A547" s="25"/>
+      <c r="F547" s="27"/>
     </row>
     <row r="548" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="26"/>
-      <c r="F548" s="28"/>
+      <c r="A548" s="25"/>
+      <c r="F548" s="27"/>
     </row>
     <row r="549" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="26"/>
-      <c r="F549" s="28"/>
+      <c r="A549" s="25"/>
+      <c r="F549" s="27"/>
     </row>
     <row r="550" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="26"/>
-      <c r="F550" s="28"/>
+      <c r="A550" s="25"/>
+      <c r="F550" s="27"/>
     </row>
     <row r="551" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="26"/>
-      <c r="F551" s="28"/>
+      <c r="A551" s="25"/>
+      <c r="F551" s="27"/>
     </row>
     <row r="552" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="26"/>
-      <c r="F552" s="28"/>
+      <c r="A552" s="25"/>
+      <c r="F552" s="27"/>
     </row>
     <row r="553" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="26"/>
-      <c r="F553" s="28"/>
+      <c r="A553" s="25"/>
+      <c r="F553" s="27"/>
     </row>
     <row r="554" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="26"/>
-      <c r="F554" s="28"/>
+      <c r="A554" s="25"/>
+      <c r="F554" s="27"/>
     </row>
     <row r="555" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="26"/>
-      <c r="F555" s="28"/>
+      <c r="A555" s="25"/>
+      <c r="F555" s="27"/>
     </row>
     <row r="556" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="26"/>
-      <c r="F556" s="28"/>
+      <c r="A556" s="25"/>
+      <c r="F556" s="27"/>
     </row>
     <row r="557" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="26"/>
-      <c r="F557" s="28"/>
+      <c r="A557" s="25"/>
+      <c r="F557" s="27"/>
     </row>
     <row r="558" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="26"/>
-      <c r="F558" s="28"/>
+      <c r="A558" s="25"/>
+      <c r="F558" s="27"/>
     </row>
     <row r="559" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="26"/>
-      <c r="F559" s="28"/>
+      <c r="A559" s="25"/>
+      <c r="F559" s="27"/>
     </row>
     <row r="560" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="26"/>
-      <c r="F560" s="28"/>
+      <c r="A560" s="25"/>
+      <c r="F560" s="27"/>
     </row>
     <row r="561" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="26"/>
-      <c r="F561" s="28"/>
+      <c r="A561" s="25"/>
+      <c r="F561" s="27"/>
     </row>
     <row r="562" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="26"/>
-      <c r="F562" s="28"/>
+      <c r="A562" s="25"/>
+      <c r="F562" s="27"/>
     </row>
     <row r="563" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="26"/>
-      <c r="F563" s="28"/>
+      <c r="A563" s="25"/>
+      <c r="F563" s="27"/>
     </row>
     <row r="564" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="26"/>
-      <c r="F564" s="28"/>
+      <c r="A564" s="25"/>
+      <c r="F564" s="27"/>
     </row>
     <row r="565" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="26"/>
-      <c r="F565" s="28"/>
+      <c r="A565" s="25"/>
+      <c r="F565" s="27"/>
     </row>
     <row r="566" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="26"/>
-      <c r="F566" s="28"/>
+      <c r="A566" s="25"/>
+      <c r="F566" s="27"/>
     </row>
     <row r="567" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="26"/>
-      <c r="F567" s="28"/>
+      <c r="A567" s="25"/>
+      <c r="F567" s="27"/>
     </row>
     <row r="568" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="26"/>
-      <c r="F568" s="28"/>
+      <c r="A568" s="25"/>
+      <c r="F568" s="27"/>
     </row>
     <row r="569" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="26"/>
-      <c r="F569" s="28"/>
+      <c r="A569" s="25"/>
+      <c r="F569" s="27"/>
     </row>
     <row r="570" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="26"/>
-      <c r="F570" s="28"/>
+      <c r="A570" s="25"/>
+      <c r="F570" s="27"/>
     </row>
     <row r="571" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="26"/>
-      <c r="F571" s="28"/>
+      <c r="A571" s="25"/>
+      <c r="F571" s="27"/>
     </row>
     <row r="572" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="26"/>
-      <c r="F572" s="28"/>
+      <c r="A572" s="25"/>
+      <c r="F572" s="27"/>
     </row>
     <row r="573" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="26"/>
-      <c r="F573" s="28"/>
+      <c r="A573" s="25"/>
+      <c r="F573" s="27"/>
     </row>
     <row r="574" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="26"/>
-      <c r="F574" s="28"/>
+      <c r="A574" s="25"/>
+      <c r="F574" s="27"/>
     </row>
     <row r="575" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="26"/>
-      <c r="F575" s="28"/>
+      <c r="A575" s="25"/>
+      <c r="F575" s="27"/>
     </row>
     <row r="576" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="26"/>
-      <c r="F576" s="28"/>
+      <c r="A576" s="25"/>
+      <c r="F576" s="27"/>
     </row>
     <row r="577" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="26"/>
-      <c r="F577" s="28"/>
+      <c r="A577" s="25"/>
+      <c r="F577" s="27"/>
     </row>
     <row r="578" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="26"/>
-      <c r="F578" s="28"/>
+      <c r="A578" s="25"/>
+      <c r="F578" s="27"/>
     </row>
     <row r="579" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="26"/>
-      <c r="F579" s="28"/>
+      <c r="A579" s="25"/>
+      <c r="F579" s="27"/>
     </row>
     <row r="580" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="26"/>
-      <c r="F580" s="28"/>
+      <c r="A580" s="25"/>
+      <c r="F580" s="27"/>
     </row>
     <row r="581" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="26"/>
-      <c r="F581" s="28"/>
+      <c r="A581" s="25"/>
+      <c r="F581" s="27"/>
     </row>
     <row r="582" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="26"/>
-      <c r="F582" s="28"/>
+      <c r="A582" s="25"/>
+      <c r="F582" s="27"/>
     </row>
     <row r="583" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="26"/>
-      <c r="F583" s="28"/>
+      <c r="A583" s="25"/>
+      <c r="F583" s="27"/>
     </row>
     <row r="584" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="26"/>
-      <c r="F584" s="28"/>
+      <c r="A584" s="25"/>
+      <c r="F584" s="27"/>
     </row>
     <row r="585" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="26"/>
-      <c r="F585" s="28"/>
+      <c r="A585" s="25"/>
+      <c r="F585" s="27"/>
     </row>
     <row r="586" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="26"/>
-      <c r="F586" s="28"/>
+      <c r="A586" s="25"/>
+      <c r="F586" s="27"/>
     </row>
     <row r="587" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="26"/>
-      <c r="F587" s="28"/>
+      <c r="A587" s="25"/>
+      <c r="F587" s="27"/>
     </row>
     <row r="588" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="26"/>
-      <c r="F588" s="28"/>
+      <c r="A588" s="25"/>
+      <c r="F588" s="27"/>
     </row>
     <row r="589" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="26"/>
-      <c r="F589" s="28"/>
+      <c r="A589" s="25"/>
+      <c r="F589" s="27"/>
     </row>
     <row r="590" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="26"/>
-      <c r="F590" s="28"/>
+      <c r="A590" s="25"/>
+      <c r="F590" s="27"/>
     </row>
     <row r="591" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="26"/>
-      <c r="F591" s="28"/>
+      <c r="A591" s="25"/>
+      <c r="F591" s="27"/>
     </row>
     <row r="592" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="26"/>
-      <c r="F592" s="28"/>
+      <c r="A592" s="25"/>
+      <c r="F592" s="27"/>
     </row>
     <row r="593" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="26"/>
-      <c r="F593" s="28"/>
+      <c r="A593" s="25"/>
+      <c r="F593" s="27"/>
     </row>
     <row r="594" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="26"/>
-      <c r="F594" s="28"/>
+      <c r="A594" s="25"/>
+      <c r="F594" s="27"/>
     </row>
     <row r="595" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="26"/>
-      <c r="F595" s="28"/>
+      <c r="A595" s="25"/>
+      <c r="F595" s="27"/>
     </row>
     <row r="596" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="26"/>
-      <c r="F596" s="28"/>
+      <c r="A596" s="25"/>
+      <c r="F596" s="27"/>
     </row>
     <row r="597" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="26"/>
-      <c r="F597" s="28"/>
+      <c r="A597" s="25"/>
+      <c r="F597" s="27"/>
     </row>
     <row r="598" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="26"/>
-      <c r="F598" s="28"/>
+      <c r="A598" s="25"/>
+      <c r="F598" s="27"/>
     </row>
     <row r="599" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="26"/>
-      <c r="F599" s="28"/>
+      <c r="A599" s="25"/>
+      <c r="F599" s="27"/>
     </row>
     <row r="600" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="26"/>
-      <c r="F600" s="28"/>
+      <c r="A600" s="25"/>
+      <c r="F600" s="27"/>
     </row>
     <row r="601" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="26"/>
-      <c r="F601" s="28"/>
+      <c r="A601" s="25"/>
+      <c r="F601" s="27"/>
     </row>
     <row r="602" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="26"/>
-      <c r="F602" s="28"/>
+      <c r="A602" s="25"/>
+      <c r="F602" s="27"/>
     </row>
     <row r="603" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="26"/>
-      <c r="F603" s="28"/>
+      <c r="A603" s="25"/>
+      <c r="F603" s="27"/>
     </row>
     <row r="604" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="26"/>
-      <c r="F604" s="28"/>
+      <c r="A604" s="25"/>
+      <c r="F604" s="27"/>
     </row>
     <row r="605" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="26"/>
-      <c r="F605" s="28"/>
+      <c r="A605" s="25"/>
+      <c r="F605" s="27"/>
     </row>
     <row r="606" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A606" s="26"/>
-      <c r="F606" s="28"/>
+      <c r="A606" s="25"/>
+      <c r="F606" s="27"/>
     </row>
     <row r="607" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A607" s="26"/>
-      <c r="F607" s="28"/>
+      <c r="A607" s="25"/>
+      <c r="F607" s="27"/>
     </row>
     <row r="608" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="26"/>
-      <c r="F608" s="28"/>
+      <c r="A608" s="25"/>
+      <c r="F608" s="27"/>
     </row>
     <row r="609" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A609" s="26"/>
-      <c r="F609" s="28"/>
+      <c r="A609" s="25"/>
+      <c r="F609" s="27"/>
     </row>
     <row r="610" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A610" s="26"/>
-      <c r="F610" s="28"/>
+      <c r="A610" s="25"/>
+      <c r="F610" s="27"/>
     </row>
     <row r="611" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="26"/>
-      <c r="F611" s="28"/>
+      <c r="A611" s="25"/>
+      <c r="F611" s="27"/>
     </row>
     <row r="612" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="26"/>
-      <c r="F612" s="28"/>
+      <c r="A612" s="25"/>
+      <c r="F612" s="27"/>
     </row>
     <row r="613" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A613" s="26"/>
-      <c r="F613" s="28"/>
+      <c r="A613" s="25"/>
+      <c r="F613" s="27"/>
     </row>
     <row r="614" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="26"/>
-      <c r="F614" s="28"/>
+      <c r="A614" s="25"/>
+      <c r="F614" s="27"/>
     </row>
     <row r="615" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="26"/>
-      <c r="F615" s="28"/>
+      <c r="A615" s="25"/>
+      <c r="F615" s="27"/>
     </row>
     <row r="616" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="26"/>
-      <c r="F616" s="28"/>
+      <c r="A616" s="25"/>
+      <c r="F616" s="27"/>
     </row>
     <row r="617" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A617" s="26"/>
-      <c r="F617" s="28"/>
+      <c r="A617" s="25"/>
+      <c r="F617" s="27"/>
     </row>
     <row r="618" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="26"/>
-      <c r="F618" s="28"/>
+      <c r="A618" s="25"/>
+      <c r="F618" s="27"/>
     </row>
     <row r="619" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A619" s="26"/>
-      <c r="F619" s="28"/>
+      <c r="A619" s="25"/>
+      <c r="F619" s="27"/>
     </row>
     <row r="620" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A620" s="26"/>
-      <c r="F620" s="28"/>
+      <c r="A620" s="25"/>
+      <c r="F620" s="27"/>
     </row>
     <row r="621" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="26"/>
-      <c r="F621" s="28"/>
+      <c r="A621" s="25"/>
+      <c r="F621" s="27"/>
     </row>
     <row r="622" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A622" s="26"/>
-      <c r="F622" s="28"/>
+      <c r="A622" s="25"/>
+      <c r="F622" s="27"/>
     </row>
     <row r="623" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="26"/>
-      <c r="F623" s="28"/>
+      <c r="A623" s="25"/>
+      <c r="F623" s="27"/>
     </row>
     <row r="624" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="26"/>
-      <c r="F624" s="28"/>
+      <c r="A624" s="25"/>
+      <c r="F624" s="27"/>
     </row>
     <row r="625" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A625" s="26"/>
-      <c r="F625" s="28"/>
+      <c r="A625" s="25"/>
+      <c r="F625" s="27"/>
     </row>
     <row r="626" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A626" s="26"/>
-      <c r="F626" s="28"/>
+      <c r="A626" s="25"/>
+      <c r="F626" s="27"/>
     </row>
     <row r="627" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="26"/>
-      <c r="F627" s="28"/>
+      <c r="A627" s="25"/>
+      <c r="F627" s="27"/>
     </row>
     <row r="628" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A628" s="26"/>
-      <c r="F628" s="28"/>
+      <c r="A628" s="25"/>
+      <c r="F628" s="27"/>
     </row>
     <row r="629" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A629" s="26"/>
-      <c r="F629" s="28"/>
+      <c r="A629" s="25"/>
+      <c r="F629" s="27"/>
     </row>
     <row r="630" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="26"/>
-      <c r="F630" s="28"/>
+      <c r="A630" s="25"/>
+      <c r="F630" s="27"/>
     </row>
     <row r="631" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A631" s="26"/>
-      <c r="F631" s="28"/>
+      <c r="A631" s="25"/>
+      <c r="F631" s="27"/>
     </row>
     <row r="632" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="26"/>
-      <c r="F632" s="28"/>
+      <c r="A632" s="25"/>
+      <c r="F632" s="27"/>
     </row>
     <row r="633" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="26"/>
-      <c r="F633" s="28"/>
+      <c r="A633" s="25"/>
+      <c r="F633" s="27"/>
     </row>
     <row r="634" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="26"/>
-      <c r="F634" s="28"/>
+      <c r="A634" s="25"/>
+      <c r="F634" s="27"/>
     </row>
     <row r="635" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A635" s="26"/>
-      <c r="F635" s="28"/>
+      <c r="A635" s="25"/>
+      <c r="F635" s="27"/>
     </row>
     <row r="636" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A636" s="26"/>
-      <c r="F636" s="28"/>
+      <c r="A636" s="25"/>
+      <c r="F636" s="27"/>
     </row>
     <row r="637" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A637" s="26"/>
-      <c r="F637" s="28"/>
+      <c r="A637" s="25"/>
+      <c r="F637" s="27"/>
     </row>
     <row r="638" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A638" s="26"/>
-      <c r="F638" s="28"/>
+      <c r="A638" s="25"/>
+      <c r="F638" s="27"/>
     </row>
     <row r="639" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="26"/>
-      <c r="F639" s="28"/>
+      <c r="A639" s="25"/>
+      <c r="F639" s="27"/>
     </row>
     <row r="640" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="26"/>
-      <c r="F640" s="28"/>
+      <c r="A640" s="25"/>
+      <c r="F640" s="27"/>
     </row>
     <row r="641" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A641" s="26"/>
-      <c r="F641" s="28"/>
+      <c r="A641" s="25"/>
+      <c r="F641" s="27"/>
     </row>
     <row r="642" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A642" s="26"/>
-      <c r="F642" s="28"/>
+      <c r="A642" s="25"/>
+      <c r="F642" s="27"/>
     </row>
     <row r="643" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A643" s="26"/>
-      <c r="F643" s="28"/>
+      <c r="A643" s="25"/>
+      <c r="F643" s="27"/>
     </row>
     <row r="644" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="26"/>
-      <c r="F644" s="28"/>
+      <c r="A644" s="25"/>
+      <c r="F644" s="27"/>
     </row>
     <row r="645" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A645" s="26"/>
-      <c r="F645" s="28"/>
+      <c r="A645" s="25"/>
+      <c r="F645" s="27"/>
     </row>
     <row r="646" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A646" s="26"/>
-      <c r="F646" s="28"/>
+      <c r="A646" s="25"/>
+      <c r="F646" s="27"/>
     </row>
     <row r="647" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A647" s="26"/>
-      <c r="F647" s="28"/>
+      <c r="A647" s="25"/>
+      <c r="F647" s="27"/>
     </row>
     <row r="648" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A648" s="26"/>
-      <c r="F648" s="28"/>
+      <c r="A648" s="25"/>
+      <c r="F648" s="27"/>
     </row>
     <row r="649" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A649" s="26"/>
-      <c r="F649" s="28"/>
+      <c r="A649" s="25"/>
+      <c r="F649" s="27"/>
     </row>
     <row r="650" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A650" s="26"/>
-      <c r="F650" s="28"/>
+      <c r="A650" s="25"/>
+      <c r="F650" s="27"/>
     </row>
     <row r="651" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A651" s="26"/>
-      <c r="F651" s="28"/>
+      <c r="A651" s="25"/>
+      <c r="F651" s="27"/>
     </row>
     <row r="652" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A652" s="26"/>
-      <c r="F652" s="28"/>
+      <c r="A652" s="25"/>
+      <c r="F652" s="27"/>
     </row>
     <row r="653" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A653" s="26"/>
-      <c r="F653" s="28"/>
+      <c r="A653" s="25"/>
+      <c r="F653" s="27"/>
     </row>
     <row r="654" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A654" s="26"/>
-      <c r="F654" s="28"/>
+      <c r="A654" s="25"/>
+      <c r="F654" s="27"/>
     </row>
     <row r="655" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="26"/>
-      <c r="F655" s="28"/>
+      <c r="A655" s="25"/>
+      <c r="F655" s="27"/>
     </row>
     <row r="656" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A656" s="26"/>
-      <c r="F656" s="28"/>
+      <c r="A656" s="25"/>
+      <c r="F656" s="27"/>
     </row>
     <row r="657" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A657" s="26"/>
-      <c r="F657" s="28"/>
+      <c r="A657" s="25"/>
+      <c r="F657" s="27"/>
     </row>
     <row r="658" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A658" s="26"/>
-      <c r="F658" s="28"/>
+      <c r="A658" s="25"/>
+      <c r="F658" s="27"/>
     </row>
     <row r="659" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A659" s="26"/>
-      <c r="F659" s="28"/>
+      <c r="A659" s="25"/>
+      <c r="F659" s="27"/>
     </row>
     <row r="660" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A660" s="26"/>
-      <c r="F660" s="28"/>
+      <c r="A660" s="25"/>
+      <c r="F660" s="27"/>
     </row>
     <row r="661" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A661" s="26"/>
-      <c r="F661" s="28"/>
+      <c r="A661" s="25"/>
+      <c r="F661" s="27"/>
     </row>
     <row r="662" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A662" s="26"/>
-      <c r="F662" s="28"/>
+      <c r="A662" s="25"/>
+      <c r="F662" s="27"/>
     </row>
     <row r="663" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A663" s="26"/>
-      <c r="F663" s="28"/>
+      <c r="A663" s="25"/>
+      <c r="F663" s="27"/>
     </row>
     <row r="664" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A664" s="26"/>
-      <c r="F664" s="28"/>
+      <c r="A664" s="25"/>
+      <c r="F664" s="27"/>
     </row>
     <row r="665" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A665" s="26"/>
-      <c r="F665" s="28"/>
+      <c r="A665" s="25"/>
+      <c r="F665" s="27"/>
     </row>
     <row r="666" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A666" s="26"/>
-      <c r="F666" s="28"/>
+      <c r="A666" s="25"/>
+      <c r="F666" s="27"/>
     </row>
     <row r="667" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A667" s="26"/>
-      <c r="F667" s="28"/>
+      <c r="A667" s="25"/>
+      <c r="F667" s="27"/>
     </row>
     <row r="668" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A668" s="26"/>
-      <c r="F668" s="28"/>
+      <c r="A668" s="25"/>
+      <c r="F668" s="27"/>
     </row>
     <row r="669" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A669" s="26"/>
-      <c r="F669" s="28"/>
+      <c r="A669" s="25"/>
+      <c r="F669" s="27"/>
     </row>
     <row r="670" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A670" s="26"/>
-      <c r="F670" s="28"/>
+      <c r="A670" s="25"/>
+      <c r="F670" s="27"/>
     </row>
     <row r="671" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="26"/>
-      <c r="F671" s="28"/>
+      <c r="A671" s="25"/>
+      <c r="F671" s="27"/>
     </row>
     <row r="672" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A672" s="26"/>
-      <c r="F672" s="28"/>
+      <c r="A672" s="25"/>
+      <c r="F672" s="27"/>
     </row>
     <row r="673" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A673" s="26"/>
-      <c r="F673" s="28"/>
+      <c r="A673" s="25"/>
+      <c r="F673" s="27"/>
     </row>
     <row r="674" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A674" s="26"/>
-      <c r="F674" s="28"/>
+      <c r="A674" s="25"/>
+      <c r="F674" s="27"/>
     </row>
     <row r="675" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A675" s="26"/>
-      <c r="F675" s="28"/>
+      <c r="A675" s="25"/>
+      <c r="F675" s="27"/>
     </row>
     <row r="676" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A676" s="26"/>
-      <c r="F676" s="28"/>
+      <c r="A676" s="25"/>
+      <c r="F676" s="27"/>
     </row>
     <row r="677" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A677" s="26"/>
-      <c r="F677" s="28"/>
+      <c r="A677" s="25"/>
+      <c r="F677" s="27"/>
     </row>
     <row r="678" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A678" s="26"/>
-      <c r="F678" s="28"/>
+      <c r="A678" s="25"/>
+      <c r="F678" s="27"/>
     </row>
     <row r="679" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A679" s="26"/>
-      <c r="F679" s="28"/>
+      <c r="A679" s="25"/>
+      <c r="F679" s="27"/>
     </row>
     <row r="680" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A680" s="26"/>
-      <c r="F680" s="28"/>
+      <c r="A680" s="25"/>
+      <c r="F680" s="27"/>
     </row>
     <row r="681" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A681" s="26"/>
-      <c r="F681" s="28"/>
+      <c r="A681" s="25"/>
+      <c r="F681" s="27"/>
     </row>
     <row r="682" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="26"/>
-      <c r="F682" s="28"/>
+      <c r="A682" s="25"/>
+      <c r="F682" s="27"/>
     </row>
     <row r="683" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="26"/>
-      <c r="F683" s="28"/>
+      <c r="A683" s="25"/>
+      <c r="F683" s="27"/>
     </row>
     <row r="684" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A684" s="26"/>
-      <c r="F684" s="28"/>
+      <c r="A684" s="25"/>
+      <c r="F684" s="27"/>
     </row>
     <row r="685" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A685" s="26"/>
-      <c r="F685" s="28"/>
+      <c r="A685" s="25"/>
+      <c r="F685" s="27"/>
     </row>
     <row r="686" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A686" s="26"/>
-      <c r="F686" s="28"/>
+      <c r="A686" s="25"/>
+      <c r="F686" s="27"/>
     </row>
     <row r="687" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A687" s="26"/>
-      <c r="F687" s="28"/>
+      <c r="A687" s="25"/>
+      <c r="F687" s="27"/>
     </row>
     <row r="688" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A688" s="26"/>
-      <c r="F688" s="28"/>
+      <c r="A688" s="25"/>
+      <c r="F688" s="27"/>
     </row>
     <row r="689" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A689" s="26"/>
-      <c r="F689" s="28"/>
+      <c r="A689" s="25"/>
+      <c r="F689" s="27"/>
     </row>
     <row r="690" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A690" s="26"/>
-      <c r="F690" s="28"/>
+      <c r="A690" s="25"/>
+      <c r="F690" s="27"/>
     </row>
     <row r="691" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A691" s="26"/>
-      <c r="F691" s="28"/>
+      <c r="A691" s="25"/>
+      <c r="F691" s="27"/>
     </row>
     <row r="692" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A692" s="26"/>
-      <c r="F692" s="28"/>
+      <c r="A692" s="25"/>
+      <c r="F692" s="27"/>
     </row>
     <row r="693" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A693" s="26"/>
-      <c r="F693" s="28"/>
+      <c r="A693" s="25"/>
+      <c r="F693" s="27"/>
     </row>
     <row r="694" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A694" s="26"/>
-      <c r="F694" s="28"/>
+      <c r="A694" s="25"/>
+      <c r="F694" s="27"/>
     </row>
     <row r="695" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A695" s="26"/>
-      <c r="F695" s="28"/>
+      <c r="A695" s="25"/>
+      <c r="F695" s="27"/>
     </row>
     <row r="696" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A696" s="26"/>
-      <c r="F696" s="28"/>
+      <c r="A696" s="25"/>
+      <c r="F696" s="27"/>
     </row>
     <row r="697" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A697" s="26"/>
-      <c r="F697" s="28"/>
+      <c r="A697" s="25"/>
+      <c r="F697" s="27"/>
     </row>
     <row r="698" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A698" s="26"/>
-      <c r="F698" s="28"/>
+      <c r="A698" s="25"/>
+      <c r="F698" s="27"/>
     </row>
     <row r="699" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A699" s="26"/>
-      <c r="F699" s="28"/>
+      <c r="A699" s="25"/>
+      <c r="F699" s="27"/>
     </row>
     <row r="700" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A700" s="26"/>
-      <c r="F700" s="28"/>
+      <c r="A700" s="25"/>
+      <c r="F700" s="27"/>
     </row>
     <row r="701" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A701" s="26"/>
-      <c r="F701" s="28"/>
+      <c r="A701" s="25"/>
+      <c r="F701" s="27"/>
     </row>
     <row r="702" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A702" s="26"/>
-      <c r="F702" s="28"/>
+      <c r="A702" s="25"/>
+      <c r="F702" s="27"/>
     </row>
     <row r="703" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A703" s="26"/>
-      <c r="F703" s="28"/>
+      <c r="A703" s="25"/>
+      <c r="F703" s="27"/>
     </row>
     <row r="704" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A704" s="26"/>
-      <c r="F704" s="28"/>
+      <c r="A704" s="25"/>
+      <c r="F704" s="27"/>
     </row>
     <row r="705" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A705" s="26"/>
-      <c r="F705" s="28"/>
+      <c r="A705" s="25"/>
+      <c r="F705" s="27"/>
     </row>
     <row r="706" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A706" s="26"/>
-      <c r="F706" s="28"/>
+      <c r="A706" s="25"/>
+      <c r="F706" s="27"/>
     </row>
     <row r="707" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A707" s="26"/>
-      <c r="F707" s="28"/>
+      <c r="A707" s="25"/>
+      <c r="F707" s="27"/>
     </row>
     <row r="708" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A708" s="26"/>
-      <c r="F708" s="28"/>
+      <c r="A708" s="25"/>
+      <c r="F708" s="27"/>
     </row>
     <row r="709" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A709" s="26"/>
-      <c r="F709" s="28"/>
+      <c r="A709" s="25"/>
+      <c r="F709" s="27"/>
     </row>
     <row r="710" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A710" s="26"/>
-      <c r="F710" s="28"/>
+      <c r="A710" s="25"/>
+      <c r="F710" s="27"/>
     </row>
     <row r="711" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A711" s="26"/>
-      <c r="F711" s="28"/>
+      <c r="A711" s="25"/>
+      <c r="F711" s="27"/>
     </row>
     <row r="712" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A712" s="26"/>
-      <c r="F712" s="28"/>
+      <c r="A712" s="25"/>
+      <c r="F712" s="27"/>
     </row>
     <row r="713" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A713" s="26"/>
-      <c r="F713" s="28"/>
+      <c r="A713" s="25"/>
+      <c r="F713" s="27"/>
     </row>
     <row r="714" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A714" s="26"/>
-      <c r="F714" s="28"/>
+      <c r="A714" s="25"/>
+      <c r="F714" s="27"/>
     </row>
     <row r="715" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A715" s="26"/>
-      <c r="F715" s="28"/>
+      <c r="A715" s="25"/>
+      <c r="F715" s="27"/>
     </row>
     <row r="716" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="26"/>
-      <c r="F716" s="28"/>
+      <c r="A716" s="25"/>
+      <c r="F716" s="27"/>
     </row>
     <row r="717" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="26"/>
-      <c r="F717" s="28"/>
+      <c r="A717" s="25"/>
+      <c r="F717" s="27"/>
     </row>
     <row r="718" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="26"/>
-      <c r="F718" s="28"/>
+      <c r="A718" s="25"/>
+      <c r="F718" s="27"/>
     </row>
     <row r="719" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A719" s="26"/>
-      <c r="F719" s="28"/>
+      <c r="A719" s="25"/>
+      <c r="F719" s="27"/>
     </row>
     <row r="720" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A720" s="26"/>
-      <c r="F720" s="28"/>
+      <c r="A720" s="25"/>
+      <c r="F720" s="27"/>
     </row>
     <row r="721" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A721" s="26"/>
-      <c r="F721" s="28"/>
+      <c r="A721" s="25"/>
+      <c r="F721" s="27"/>
     </row>
     <row r="722" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A722" s="26"/>
-      <c r="F722" s="28"/>
+      <c r="A722" s="25"/>
+      <c r="F722" s="27"/>
     </row>
     <row r="723" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A723" s="26"/>
-      <c r="F723" s="28"/>
+      <c r="A723" s="25"/>
+      <c r="F723" s="27"/>
     </row>
     <row r="724" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A724" s="26"/>
-      <c r="F724" s="28"/>
+      <c r="A724" s="25"/>
+      <c r="F724" s="27"/>
     </row>
     <row r="725" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A725" s="26"/>
-      <c r="F725" s="28"/>
+      <c r="A725" s="25"/>
+      <c r="F725" s="27"/>
     </row>
     <row r="726" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A726" s="26"/>
-      <c r="F726" s="28"/>
+      <c r="A726" s="25"/>
+      <c r="F726" s="27"/>
     </row>
     <row r="727" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A727" s="26"/>
-      <c r="F727" s="28"/>
+      <c r="A727" s="25"/>
+      <c r="F727" s="27"/>
     </row>
     <row r="728" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A728" s="26"/>
-      <c r="F728" s="28"/>
+      <c r="A728" s="25"/>
+      <c r="F728" s="27"/>
     </row>
     <row r="729" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A729" s="26"/>
-      <c r="F729" s="28"/>
+      <c r="A729" s="25"/>
+      <c r="F729" s="27"/>
     </row>
     <row r="730" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A730" s="26"/>
-      <c r="F730" s="28"/>
+      <c r="A730" s="25"/>
+      <c r="F730" s="27"/>
     </row>
     <row r="731" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A731" s="26"/>
-      <c r="F731" s="28"/>
+      <c r="A731" s="25"/>
+      <c r="F731" s="27"/>
     </row>
     <row r="732" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A732" s="26"/>
-      <c r="F732" s="28"/>
+      <c r="A732" s="25"/>
+      <c r="F732" s="27"/>
     </row>
     <row r="733" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A733" s="26"/>
-      <c r="F733" s="28"/>
+      <c r="A733" s="25"/>
+      <c r="F733" s="27"/>
     </row>
     <row r="734" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="26"/>
-      <c r="F734" s="28"/>
+      <c r="A734" s="25"/>
+      <c r="F734" s="27"/>
     </row>
     <row r="735" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A735" s="26"/>
-      <c r="F735" s="28"/>
+      <c r="A735" s="25"/>
+      <c r="F735" s="27"/>
     </row>
     <row r="736" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A736" s="26"/>
-      <c r="F736" s="28"/>
+      <c r="A736" s="25"/>
+      <c r="F736" s="27"/>
     </row>
     <row r="737" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A737" s="26"/>
-      <c r="F737" s="28"/>
+      <c r="A737" s="25"/>
+      <c r="F737" s="27"/>
     </row>
     <row r="738" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A738" s="26"/>
-      <c r="F738" s="28"/>
+      <c r="A738" s="25"/>
+      <c r="F738" s="27"/>
     </row>
     <row r="739" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="26"/>
-      <c r="F739" s="28"/>
+      <c r="A739" s="25"/>
+      <c r="F739" s="27"/>
     </row>
     <row r="740" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A740" s="26"/>
-      <c r="F740" s="28"/>
+      <c r="A740" s="25"/>
+      <c r="F740" s="27"/>
     </row>
     <row r="741" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="26"/>
-      <c r="F741" s="28"/>
+      <c r="A741" s="25"/>
+      <c r="F741" s="27"/>
     </row>
     <row r="742" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A742" s="26"/>
-      <c r="F742" s="28"/>
+      <c r="A742" s="25"/>
+      <c r="F742" s="27"/>
     </row>
     <row r="743" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="26"/>
-      <c r="F743" s="28"/>
+      <c r="A743" s="25"/>
+      <c r="F743" s="27"/>
     </row>
     <row r="744" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="26"/>
-      <c r="F744" s="28"/>
+      <c r="A744" s="25"/>
+      <c r="F744" s="27"/>
     </row>
     <row r="745" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="26"/>
-      <c r="F745" s="28"/>
+      <c r="A745" s="25"/>
+      <c r="F745" s="27"/>
     </row>
     <row r="746" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="26"/>
-      <c r="F746" s="28"/>
+      <c r="A746" s="25"/>
+      <c r="F746" s="27"/>
     </row>
     <row r="747" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="26"/>
-      <c r="F747" s="28"/>
+      <c r="A747" s="25"/>
+      <c r="F747" s="27"/>
     </row>
     <row r="748" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="26"/>
-      <c r="F748" s="28"/>
+      <c r="A748" s="25"/>
+      <c r="F748" s="27"/>
     </row>
     <row r="749" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="26"/>
-      <c r="F749" s="28"/>
+      <c r="A749" s="25"/>
+      <c r="F749" s="27"/>
     </row>
     <row r="750" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A750" s="26"/>
-      <c r="F750" s="28"/>
+      <c r="A750" s="25"/>
+      <c r="F750" s="27"/>
     </row>
     <row r="751" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A751" s="26"/>
-      <c r="F751" s="28"/>
+      <c r="A751" s="25"/>
+      <c r="F751" s="27"/>
     </row>
     <row r="752" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A752" s="26"/>
-      <c r="F752" s="28"/>
+      <c r="A752" s="25"/>
+      <c r="F752" s="27"/>
     </row>
     <row r="753" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A753" s="26"/>
-      <c r="F753" s="28"/>
+      <c r="A753" s="25"/>
+      <c r="F753" s="27"/>
     </row>
     <row r="754" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A754" s="26"/>
-      <c r="F754" s="28"/>
+      <c r="A754" s="25"/>
+      <c r="F754" s="27"/>
     </row>
     <row r="755" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A755" s="26"/>
-      <c r="F755" s="28"/>
+      <c r="A755" s="25"/>
+      <c r="F755" s="27"/>
     </row>
     <row r="756" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A756" s="26"/>
-      <c r="F756" s="28"/>
+      <c r="A756" s="25"/>
+      <c r="F756" s="27"/>
     </row>
     <row r="757" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A757" s="26"/>
-      <c r="F757" s="28"/>
+      <c r="A757" s="25"/>
+      <c r="F757" s="27"/>
     </row>
     <row r="758" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A758" s="26"/>
-      <c r="F758" s="28"/>
+      <c r="A758" s="25"/>
+      <c r="F758" s="27"/>
     </row>
     <row r="759" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A759" s="26"/>
-      <c r="F759" s="28"/>
+      <c r="A759" s="25"/>
+      <c r="F759" s="27"/>
     </row>
     <row r="760" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A760" s="26"/>
-      <c r="F760" s="28"/>
+      <c r="A760" s="25"/>
+      <c r="F760" s="27"/>
     </row>
     <row r="761" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A761" s="26"/>
-      <c r="F761" s="28"/>
+      <c r="A761" s="25"/>
+      <c r="F761" s="27"/>
     </row>
     <row r="762" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A762" s="26"/>
-      <c r="F762" s="28"/>
+      <c r="A762" s="25"/>
+      <c r="F762" s="27"/>
     </row>
     <row r="763" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A763" s="26"/>
-      <c r="F763" s="28"/>
+      <c r="A763" s="25"/>
+      <c r="F763" s="27"/>
     </row>
     <row r="764" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="26"/>
-      <c r="F764" s="28"/>
+      <c r="A764" s="25"/>
+      <c r="F764" s="27"/>
     </row>
     <row r="765" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A765" s="26"/>
-      <c r="F765" s="28"/>
+      <c r="A765" s="25"/>
+      <c r="F765" s="27"/>
     </row>
     <row r="766" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A766" s="26"/>
-      <c r="F766" s="28"/>
+      <c r="A766" s="25"/>
+      <c r="F766" s="27"/>
     </row>
     <row r="767" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A767" s="26"/>
-      <c r="F767" s="28"/>
+      <c r="A767" s="25"/>
+      <c r="F767" s="27"/>
     </row>
     <row r="768" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A768" s="26"/>
-      <c r="F768" s="28"/>
+      <c r="A768" s="25"/>
+      <c r="F768" s="27"/>
     </row>
     <row r="769" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A769" s="26"/>
-      <c r="F769" s="28"/>
+      <c r="A769" s="25"/>
+      <c r="F769" s="27"/>
     </row>
     <row r="770" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A770" s="26"/>
-      <c r="F770" s="28"/>
+      <c r="A770" s="25"/>
+      <c r="F770" s="27"/>
     </row>
     <row r="771" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A771" s="26"/>
-      <c r="F771" s="28"/>
+      <c r="A771" s="25"/>
+      <c r="F771" s="27"/>
     </row>
     <row r="772" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A772" s="26"/>
-      <c r="F772" s="28"/>
+      <c r="A772" s="25"/>
+      <c r="F772" s="27"/>
     </row>
     <row r="773" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A773" s="26"/>
-      <c r="F773" s="28"/>
+      <c r="A773" s="25"/>
+      <c r="F773" s="27"/>
     </row>
     <row r="774" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A774" s="26"/>
-      <c r="F774" s="28"/>
+      <c r="A774" s="25"/>
+      <c r="F774" s="27"/>
     </row>
     <row r="775" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A775" s="26"/>
-      <c r="F775" s="28"/>
+      <c r="A775" s="25"/>
+      <c r="F775" s="27"/>
     </row>
     <row r="776" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A776" s="26"/>
-      <c r="F776" s="28"/>
+      <c r="A776" s="25"/>
+      <c r="F776" s="27"/>
     </row>
     <row r="777" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A777" s="26"/>
-      <c r="F777" s="28"/>
+      <c r="A777" s="25"/>
+      <c r="F777" s="27"/>
     </row>
     <row r="778" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A778" s="26"/>
-      <c r="F778" s="28"/>
+      <c r="A778" s="25"/>
+      <c r="F778" s="27"/>
     </row>
     <row r="779" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A779" s="26"/>
-      <c r="F779" s="28"/>
+      <c r="A779" s="25"/>
+      <c r="F779" s="27"/>
     </row>
     <row r="780" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A780" s="26"/>
-      <c r="F780" s="28"/>
+      <c r="A780" s="25"/>
+      <c r="F780" s="27"/>
     </row>
     <row r="781" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A781" s="26"/>
-      <c r="F781" s="28"/>
+      <c r="A781" s="25"/>
+      <c r="F781" s="27"/>
     </row>
     <row r="782" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A782" s="26"/>
-      <c r="F782" s="28"/>
+      <c r="A782" s="25"/>
+      <c r="F782" s="27"/>
     </row>
     <row r="783" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A783" s="26"/>
-      <c r="F783" s="28"/>
+      <c r="A783" s="25"/>
+      <c r="F783" s="27"/>
     </row>
     <row r="784" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A784" s="26"/>
-      <c r="F784" s="28"/>
+      <c r="A784" s="25"/>
+      <c r="F784" s="27"/>
     </row>
     <row r="785" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A785" s="26"/>
-      <c r="F785" s="28"/>
+      <c r="A785" s="25"/>
+      <c r="F785" s="27"/>
     </row>
     <row r="786" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A786" s="26"/>
-      <c r="F786" s="28"/>
+      <c r="A786" s="25"/>
+      <c r="F786" s="27"/>
     </row>
     <row r="787" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A787" s="26"/>
-      <c r="F787" s="28"/>
+      <c r="A787" s="25"/>
+      <c r="F787" s="27"/>
     </row>
     <row r="788" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A788" s="26"/>
-      <c r="F788" s="28"/>
+      <c r="A788" s="25"/>
+      <c r="F788" s="27"/>
     </row>
     <row r="789" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A789" s="26"/>
-      <c r="F789" s="28"/>
+      <c r="A789" s="25"/>
+      <c r="F789" s="27"/>
     </row>
     <row r="790" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A790" s="26"/>
-      <c r="F790" s="28"/>
+      <c r="A790" s="25"/>
+      <c r="F790" s="27"/>
     </row>
     <row r="791" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A791" s="26"/>
-      <c r="F791" s="28"/>
+      <c r="A791" s="25"/>
+      <c r="F791" s="27"/>
     </row>
     <row r="792" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A792" s="26"/>
-      <c r="F792" s="28"/>
+      <c r="A792" s="25"/>
+      <c r="F792" s="27"/>
     </row>
     <row r="793" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A793" s="26"/>
-      <c r="F793" s="28"/>
+      <c r="A793" s="25"/>
+      <c r="F793" s="27"/>
     </row>
     <row r="794" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A794" s="26"/>
-      <c r="F794" s="28"/>
+      <c r="A794" s="25"/>
+      <c r="F794" s="27"/>
     </row>
     <row r="795" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A795" s="26"/>
-      <c r="F795" s="28"/>
+      <c r="A795" s="25"/>
+      <c r="F795" s="27"/>
     </row>
     <row r="796" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A796" s="26"/>
-      <c r="F796" s="28"/>
+      <c r="A796" s="25"/>
+      <c r="F796" s="27"/>
     </row>
     <row r="797" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A797" s="26"/>
-      <c r="F797" s="28"/>
+      <c r="A797" s="25"/>
+      <c r="F797" s="27"/>
     </row>
     <row r="798" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A798" s="26"/>
-      <c r="F798" s="28"/>
+      <c r="A798" s="25"/>
+      <c r="F798" s="27"/>
     </row>
     <row r="799" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A799" s="26"/>
-      <c r="F799" s="28"/>
+      <c r="A799" s="25"/>
+      <c r="F799" s="27"/>
     </row>
     <row r="800" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A800" s="26"/>
-      <c r="F800" s="28"/>
+      <c r="A800" s="25"/>
+      <c r="F800" s="27"/>
     </row>
     <row r="801" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A801" s="26"/>
-      <c r="F801" s="28"/>
+      <c r="A801" s="25"/>
+      <c r="F801" s="27"/>
     </row>
     <row r="802" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A802" s="26"/>
-      <c r="F802" s="28"/>
+      <c r="A802" s="25"/>
+      <c r="F802" s="27"/>
     </row>
     <row r="803" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A803" s="26"/>
-      <c r="F803" s="28"/>
+      <c r="A803" s="25"/>
+      <c r="F803" s="27"/>
     </row>
     <row r="804" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A804" s="26"/>
-      <c r="F804" s="28"/>
+      <c r="A804" s="25"/>
+      <c r="F804" s="27"/>
     </row>
     <row r="805" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A805" s="26"/>
-      <c r="F805" s="28"/>
+      <c r="A805" s="25"/>
+      <c r="F805" s="27"/>
     </row>
     <row r="806" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A806" s="26"/>
-      <c r="F806" s="28"/>
+      <c r="A806" s="25"/>
+      <c r="F806" s="27"/>
     </row>
     <row r="807" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A807" s="26"/>
-      <c r="F807" s="28"/>
+      <c r="A807" s="25"/>
+      <c r="F807" s="27"/>
     </row>
     <row r="808" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A808" s="26"/>
-      <c r="F808" s="28"/>
+      <c r="A808" s="25"/>
+      <c r="F808" s="27"/>
     </row>
     <row r="809" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A809" s="26"/>
-      <c r="F809" s="28"/>
+      <c r="A809" s="25"/>
+      <c r="F809" s="27"/>
     </row>
     <row r="810" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A810" s="26"/>
-      <c r="F810" s="28"/>
+      <c r="A810" s="25"/>
+      <c r="F810" s="27"/>
     </row>
     <row r="811" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A811" s="26"/>
-      <c r="F811" s="28"/>
+      <c r="A811" s="25"/>
+      <c r="F811" s="27"/>
     </row>
     <row r="812" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A812" s="26"/>
-      <c r="F812" s="28"/>
+      <c r="A812" s="25"/>
+      <c r="F812" s="27"/>
     </row>
     <row r="813" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A813" s="26"/>
-      <c r="F813" s="28"/>
+      <c r="A813" s="25"/>
+      <c r="F813" s="27"/>
     </row>
     <row r="814" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A814" s="26"/>
-      <c r="F814" s="28"/>
+      <c r="A814" s="25"/>
+      <c r="F814" s="27"/>
     </row>
     <row r="815" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A815" s="26"/>
-      <c r="F815" s="28"/>
+      <c r="A815" s="25"/>
+      <c r="F815" s="27"/>
     </row>
     <row r="816" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A816" s="26"/>
-      <c r="F816" s="28"/>
+      <c r="A816" s="25"/>
+      <c r="F816" s="27"/>
     </row>
     <row r="817" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A817" s="26"/>
-      <c r="F817" s="28"/>
+      <c r="A817" s="25"/>
+      <c r="F817" s="27"/>
     </row>
     <row r="818" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A818" s="26"/>
-      <c r="F818" s="28"/>
+      <c r="A818" s="25"/>
+      <c r="F818" s="27"/>
     </row>
     <row r="819" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A819" s="26"/>
-      <c r="F819" s="28"/>
+      <c r="A819" s="25"/>
+      <c r="F819" s="27"/>
     </row>
     <row r="820" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A820" s="26"/>
-      <c r="F820" s="28"/>
+      <c r="A820" s="25"/>
+      <c r="F820" s="27"/>
     </row>
     <row r="821" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A821" s="26"/>
-      <c r="F821" s="28"/>
+      <c r="A821" s="25"/>
+      <c r="F821" s="27"/>
     </row>
     <row r="822" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A822" s="26"/>
-      <c r="F822" s="28"/>
+      <c r="A822" s="25"/>
+      <c r="F822" s="27"/>
     </row>
     <row r="823" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A823" s="26"/>
-      <c r="F823" s="28"/>
+      <c r="A823" s="25"/>
+      <c r="F823" s="27"/>
     </row>
     <row r="824" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A824" s="26"/>
-      <c r="F824" s="28"/>
+      <c r="A824" s="25"/>
+      <c r="F824" s="27"/>
     </row>
     <row r="825" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A825" s="26"/>
-      <c r="F825" s="28"/>
+      <c r="A825" s="25"/>
+      <c r="F825" s="27"/>
     </row>
     <row r="826" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A826" s="26"/>
-      <c r="F826" s="28"/>
+      <c r="A826" s="25"/>
+      <c r="F826" s="27"/>
     </row>
     <row r="827" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A827" s="26"/>
-      <c r="F827" s="28"/>
+      <c r="A827" s="25"/>
+      <c r="F827" s="27"/>
     </row>
     <row r="828" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A828" s="26"/>
-      <c r="F828" s="28"/>
+      <c r="A828" s="25"/>
+      <c r="F828" s="27"/>
     </row>
     <row r="829" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A829" s="26"/>
-      <c r="F829" s="28"/>
+      <c r="A829" s="25"/>
+      <c r="F829" s="27"/>
     </row>
     <row r="830" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A830" s="26"/>
-      <c r="F830" s="28"/>
+      <c r="A830" s="25"/>
+      <c r="F830" s="27"/>
     </row>
     <row r="831" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A831" s="26"/>
-      <c r="F831" s="28"/>
+      <c r="A831" s="25"/>
+      <c r="F831" s="27"/>
     </row>
     <row r="832" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A832" s="26"/>
-      <c r="F832" s="28"/>
+      <c r="A832" s="25"/>
+      <c r="F832" s="27"/>
     </row>
     <row r="833" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A833" s="26"/>
-      <c r="F833" s="28"/>
+      <c r="A833" s="25"/>
+      <c r="F833" s="27"/>
     </row>
     <row r="834" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A834" s="26"/>
-      <c r="F834" s="28"/>
+      <c r="A834" s="25"/>
+      <c r="F834" s="27"/>
     </row>
     <row r="835" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A835" s="26"/>
-      <c r="F835" s="28"/>
+      <c r="A835" s="25"/>
+      <c r="F835" s="27"/>
     </row>
     <row r="836" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A836" s="26"/>
-      <c r="F836" s="28"/>
+      <c r="A836" s="25"/>
+      <c r="F836" s="27"/>
     </row>
     <row r="837" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A837" s="26"/>
-      <c r="F837" s="28"/>
+      <c r="A837" s="25"/>
+      <c r="F837" s="27"/>
     </row>
     <row r="838" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A838" s="26"/>
-      <c r="F838" s="28"/>
+      <c r="A838" s="25"/>
+      <c r="F838" s="27"/>
     </row>
     <row r="839" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A839" s="26"/>
-      <c r="F839" s="28"/>
+      <c r="A839" s="25"/>
+      <c r="F839" s="27"/>
     </row>
     <row r="840" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A840" s="26"/>
-      <c r="F840" s="28"/>
+      <c r="A840" s="25"/>
+      <c r="F840" s="27"/>
     </row>
     <row r="841" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A841" s="26"/>
-      <c r="F841" s="28"/>
+      <c r="A841" s="25"/>
+      <c r="F841" s="27"/>
     </row>
     <row r="842" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A842" s="26"/>
-      <c r="F842" s="28"/>
+      <c r="A842" s="25"/>
+      <c r="F842" s="27"/>
     </row>
     <row r="843" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A843" s="26"/>
-      <c r="F843" s="28"/>
+      <c r="A843" s="25"/>
+      <c r="F843" s="27"/>
     </row>
     <row r="844" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A844" s="26"/>
-      <c r="F844" s="28"/>
+      <c r="A844" s="25"/>
+      <c r="F844" s="27"/>
     </row>
     <row r="845" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A845" s="26"/>
-      <c r="F845" s="28"/>
+      <c r="A845" s="25"/>
+      <c r="F845" s="27"/>
     </row>
     <row r="846" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A846" s="26"/>
-      <c r="F846" s="28"/>
+      <c r="A846" s="25"/>
+      <c r="F846" s="27"/>
     </row>
     <row r="847" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A847" s="26"/>
-      <c r="F847" s="28"/>
+      <c r="A847" s="25"/>
+      <c r="F847" s="27"/>
     </row>
     <row r="848" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A848" s="26"/>
-      <c r="F848" s="28"/>
+      <c r="A848" s="25"/>
+      <c r="F848" s="27"/>
     </row>
     <row r="849" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A849" s="26"/>
-      <c r="F849" s="28"/>
+      <c r="A849" s="25"/>
+      <c r="F849" s="27"/>
     </row>
     <row r="850" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A850" s="26"/>
-      <c r="F850" s="28"/>
+      <c r="A850" s="25"/>
+      <c r="F850" s="27"/>
     </row>
     <row r="851" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A851" s="26"/>
-      <c r="F851" s="28"/>
+      <c r="A851" s="25"/>
+      <c r="F851" s="27"/>
     </row>
     <row r="852" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A852" s="26"/>
-      <c r="F852" s="28"/>
+      <c r="A852" s="25"/>
+      <c r="F852" s="27"/>
     </row>
     <row r="853" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A853" s="26"/>
-      <c r="F853" s="28"/>
+      <c r="A853" s="25"/>
+      <c r="F853" s="27"/>
     </row>
     <row r="854" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A854" s="26"/>
-      <c r="F854" s="28"/>
+      <c r="A854" s="25"/>
+      <c r="F854" s="27"/>
     </row>
     <row r="855" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A855" s="26"/>
-      <c r="F855" s="28"/>
+      <c r="A855" s="25"/>
+      <c r="F855" s="27"/>
     </row>
     <row r="856" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A856" s="26"/>
-      <c r="F856" s="28"/>
+      <c r="A856" s="25"/>
+      <c r="F856" s="27"/>
     </row>
     <row r="857" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A857" s="26"/>
-      <c r="F857" s="28"/>
+      <c r="A857" s="25"/>
+      <c r="F857" s="27"/>
     </row>
     <row r="858" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A858" s="26"/>
-      <c r="F858" s="28"/>
+      <c r="A858" s="25"/>
+      <c r="F858" s="27"/>
     </row>
     <row r="859" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A859" s="26"/>
-      <c r="F859" s="28"/>
+      <c r="A859" s="25"/>
+      <c r="F859" s="27"/>
     </row>
     <row r="860" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A860" s="26"/>
-      <c r="F860" s="28"/>
+      <c r="A860" s="25"/>
+      <c r="F860" s="27"/>
     </row>
     <row r="861" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A861" s="26"/>
-      <c r="F861" s="28"/>
+      <c r="A861" s="25"/>
+      <c r="F861" s="27"/>
     </row>
     <row r="862" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A862" s="26"/>
-      <c r="F862" s="28"/>
+      <c r="A862" s="25"/>
+      <c r="F862" s="27"/>
     </row>
     <row r="863" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A863" s="26"/>
-      <c r="F863" s="28"/>
+      <c r="A863" s="25"/>
+      <c r="F863" s="27"/>
     </row>
     <row r="864" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A864" s="26"/>
-      <c r="F864" s="28"/>
+      <c r="A864" s="25"/>
+      <c r="F864" s="27"/>
     </row>
     <row r="865" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A865" s="26"/>
-      <c r="F865" s="28"/>
+      <c r="A865" s="25"/>
+      <c r="F865" s="27"/>
     </row>
     <row r="866" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A866" s="26"/>
-      <c r="F866" s="28"/>
+      <c r="A866" s="25"/>
+      <c r="F866" s="27"/>
     </row>
     <row r="867" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A867" s="26"/>
-      <c r="F867" s="28"/>
+      <c r="A867" s="25"/>
+      <c r="F867" s="27"/>
     </row>
     <row r="868" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A868" s="26"/>
-      <c r="F868" s="28"/>
+      <c r="A868" s="25"/>
+      <c r="F868" s="27"/>
     </row>
     <row r="869" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A869" s="26"/>
-      <c r="F869" s="28"/>
+      <c r="A869" s="25"/>
+      <c r="F869" s="27"/>
     </row>
     <row r="870" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A870" s="26"/>
-      <c r="F870" s="28"/>
+      <c r="A870" s="25"/>
+      <c r="F870" s="27"/>
     </row>
     <row r="871" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A871" s="26"/>
-      <c r="F871" s="28"/>
+      <c r="A871" s="25"/>
+      <c r="F871" s="27"/>
     </row>
     <row r="872" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A872" s="26"/>
-      <c r="F872" s="28"/>
+      <c r="A872" s="25"/>
+      <c r="F872" s="27"/>
     </row>
     <row r="873" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A873" s="26"/>
-      <c r="F873" s="28"/>
+      <c r="A873" s="25"/>
+      <c r="F873" s="27"/>
     </row>
     <row r="874" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A874" s="26"/>
-      <c r="F874" s="28"/>
+      <c r="A874" s="25"/>
+      <c r="F874" s="27"/>
     </row>
     <row r="875" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A875" s="26"/>
-      <c r="F875" s="28"/>
+      <c r="A875" s="25"/>
+      <c r="F875" s="27"/>
     </row>
     <row r="876" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A876" s="26"/>
-      <c r="F876" s="28"/>
+      <c r="A876" s="25"/>
+      <c r="F876" s="27"/>
     </row>
     <row r="877" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A877" s="26"/>
-      <c r="F877" s="28"/>
+      <c r="A877" s="25"/>
+      <c r="F877" s="27"/>
     </row>
     <row r="878" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A878" s="26"/>
-      <c r="F878" s="28"/>
+      <c r="A878" s="25"/>
+      <c r="F878" s="27"/>
     </row>
     <row r="879" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A879" s="26"/>
-      <c r="F879" s="28"/>
+      <c r="A879" s="25"/>
+      <c r="F879" s="27"/>
     </row>
     <row r="880" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A880" s="26"/>
-      <c r="F880" s="28"/>
+      <c r="A880" s="25"/>
+      <c r="F880" s="27"/>
     </row>
     <row r="881" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A881" s="26"/>
-      <c r="F881" s="28"/>
+      <c r="A881" s="25"/>
+      <c r="F881" s="27"/>
     </row>
     <row r="882" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A882" s="26"/>
-      <c r="F882" s="28"/>
+      <c r="A882" s="25"/>
+      <c r="F882" s="27"/>
     </row>
     <row r="883" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A883" s="26"/>
-      <c r="F883" s="28"/>
+      <c r="A883" s="25"/>
+      <c r="F883" s="27"/>
     </row>
     <row r="884" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A884" s="26"/>
-      <c r="F884" s="28"/>
+      <c r="A884" s="25"/>
+      <c r="F884" s="27"/>
     </row>
     <row r="885" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A885" s="26"/>
-      <c r="F885" s="28"/>
+      <c r="A885" s="25"/>
+      <c r="F885" s="27"/>
     </row>
     <row r="886" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A886" s="26"/>
-      <c r="F886" s="28"/>
+      <c r="A886" s="25"/>
+      <c r="F886" s="27"/>
     </row>
     <row r="887" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A887" s="26"/>
-      <c r="F887" s="28"/>
+      <c r="A887" s="25"/>
+      <c r="F887" s="27"/>
     </row>
     <row r="888" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A888" s="26"/>
-      <c r="F888" s="28"/>
+      <c r="A888" s="25"/>
+      <c r="F888" s="27"/>
     </row>
     <row r="889" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A889" s="26"/>
-      <c r="F889" s="28"/>
+      <c r="A889" s="25"/>
+      <c r="F889" s="27"/>
     </row>
     <row r="890" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A890" s="26"/>
-      <c r="F890" s="28"/>
+      <c r="A890" s="25"/>
+      <c r="F890" s="27"/>
     </row>
     <row r="891" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A891" s="26"/>
-      <c r="F891" s="28"/>
+      <c r="A891" s="25"/>
+      <c r="F891" s="27"/>
     </row>
     <row r="892" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A892" s="26"/>
-      <c r="F892" s="28"/>
+      <c r="A892" s="25"/>
+      <c r="F892" s="27"/>
     </row>
     <row r="893" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A893" s="26"/>
-      <c r="F893" s="28"/>
+      <c r="A893" s="25"/>
+      <c r="F893" s="27"/>
     </row>
     <row r="894" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A894" s="26"/>
-      <c r="F894" s="28"/>
+      <c r="A894" s="25"/>
+      <c r="F894" s="27"/>
     </row>
     <row r="895" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A895" s="26"/>
-      <c r="F895" s="28"/>
+      <c r="A895" s="25"/>
+      <c r="F895" s="27"/>
     </row>
     <row r="896" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A896" s="26"/>
-      <c r="F896" s="28"/>
+      <c r="A896" s="25"/>
+      <c r="F896" s="27"/>
     </row>
     <row r="897" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A897" s="26"/>
-      <c r="F897" s="28"/>
+      <c r="A897" s="25"/>
+      <c r="F897" s="27"/>
     </row>
     <row r="898" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A898" s="26"/>
-      <c r="F898" s="28"/>
+      <c r="A898" s="25"/>
+      <c r="F898" s="27"/>
     </row>
     <row r="899" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A899" s="26"/>
-      <c r="F899" s="28"/>
+      <c r="A899" s="25"/>
+      <c r="F899" s="27"/>
     </row>
     <row r="900" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A900" s="26"/>
-      <c r="F900" s="28"/>
+      <c r="A900" s="25"/>
+      <c r="F900" s="27"/>
     </row>
     <row r="901" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A901" s="26"/>
-      <c r="F901" s="28"/>
+      <c r="A901" s="25"/>
+      <c r="F901" s="27"/>
     </row>
     <row r="902" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A902" s="26"/>
-      <c r="F902" s="28"/>
+      <c r="A902" s="25"/>
+      <c r="F902" s="27"/>
     </row>
     <row r="903" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A903" s="26"/>
-      <c r="F903" s="28"/>
+      <c r="A903" s="25"/>
+      <c r="F903" s="27"/>
     </row>
     <row r="904" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A904" s="26"/>
-      <c r="F904" s="28"/>
+      <c r="A904" s="25"/>
+      <c r="F904" s="27"/>
     </row>
     <row r="905" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A905" s="26"/>
-      <c r="F905" s="28"/>
+      <c r="A905" s="25"/>
+      <c r="F905" s="27"/>
     </row>
     <row r="906" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A906" s="26"/>
-      <c r="F906" s="28"/>
+      <c r="A906" s="25"/>
+      <c r="F906" s="27"/>
     </row>
     <row r="907" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A907" s="26"/>
-      <c r="F907" s="28"/>
+      <c r="A907" s="25"/>
+      <c r="F907" s="27"/>
     </row>
     <row r="908" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A908" s="26"/>
-      <c r="F908" s="28"/>
+      <c r="A908" s="25"/>
+      <c r="F908" s="27"/>
     </row>
     <row r="909" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A909" s="26"/>
-      <c r="F909" s="28"/>
+      <c r="A909" s="25"/>
+      <c r="F909" s="27"/>
     </row>
     <row r="910" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A910" s="26"/>
-      <c r="F910" s="28"/>
+      <c r="A910" s="25"/>
+      <c r="F910" s="27"/>
     </row>
     <row r="911" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A911" s="26"/>
-      <c r="F911" s="28"/>
+      <c r="A911" s="25"/>
+      <c r="F911" s="27"/>
     </row>
     <row r="912" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A912" s="26"/>
-      <c r="F912" s="28"/>
+      <c r="A912" s="25"/>
+      <c r="F912" s="27"/>
     </row>
     <row r="913" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A913" s="26"/>
-      <c r="F913" s="28"/>
+      <c r="A913" s="25"/>
+      <c r="F913" s="27"/>
     </row>
     <row r="914" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A914" s="26"/>
-      <c r="F914" s="28"/>
+      <c r="A914" s="25"/>
+      <c r="F914" s="27"/>
     </row>
     <row r="915" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A915" s="26"/>
-      <c r="F915" s="28"/>
+      <c r="A915" s="25"/>
+      <c r="F915" s="27"/>
     </row>
     <row r="916" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A916" s="26"/>
-      <c r="F916" s="28"/>
+      <c r="A916" s="25"/>
+      <c r="F916" s="27"/>
     </row>
     <row r="917" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A917" s="26"/>
-      <c r="F917" s="28"/>
+      <c r="A917" s="25"/>
+      <c r="F917" s="27"/>
     </row>
     <row r="918" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A918" s="26"/>
-      <c r="F918" s="28"/>
+      <c r="A918" s="25"/>
+      <c r="F918" s="27"/>
     </row>
     <row r="919" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A919" s="26"/>
-      <c r="F919" s="28"/>
+      <c r="A919" s="25"/>
+      <c r="F919" s="27"/>
     </row>
     <row r="920" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A920" s="26"/>
-      <c r="F920" s="28"/>
+      <c r="A920" s="25"/>
+      <c r="F920" s="27"/>
     </row>
     <row r="921" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A921" s="26"/>
-      <c r="F921" s="28"/>
+      <c r="A921" s="25"/>
+      <c r="F921" s="27"/>
     </row>
     <row r="922" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A922" s="26"/>
-      <c r="F922" s="28"/>
+      <c r="A922" s="25"/>
+      <c r="F922" s="27"/>
     </row>
     <row r="923" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A923" s="26"/>
-      <c r="F923" s="28"/>
+      <c r="A923" s="25"/>
+      <c r="F923" s="27"/>
     </row>
     <row r="924" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A924" s="26"/>
-      <c r="F924" s="28"/>
+      <c r="A924" s="25"/>
+      <c r="F924" s="27"/>
     </row>
     <row r="925" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A925" s="26"/>
-      <c r="F925" s="28"/>
+      <c r="A925" s="25"/>
+      <c r="F925" s="27"/>
     </row>
     <row r="926" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A926" s="26"/>
-      <c r="F926" s="28"/>
+      <c r="A926" s="25"/>
+      <c r="F926" s="27"/>
     </row>
     <row r="927" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A927" s="26"/>
-      <c r="F927" s="28"/>
+      <c r="A927" s="25"/>
+      <c r="F927" s="27"/>
     </row>
     <row r="928" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A928" s="26"/>
-      <c r="F928" s="28"/>
+      <c r="A928" s="25"/>
+      <c r="F928" s="27"/>
     </row>
     <row r="929" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A929" s="26"/>
-      <c r="F929" s="28"/>
+      <c r="A929" s="25"/>
+      <c r="F929" s="27"/>
     </row>
     <row r="930" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A930" s="26"/>
-      <c r="F930" s="28"/>
+      <c r="A930" s="25"/>
+      <c r="F930" s="27"/>
     </row>
     <row r="931" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A931" s="26"/>
-      <c r="F931" s="28"/>
+      <c r="A931" s="25"/>
+      <c r="F931" s="27"/>
     </row>
     <row r="932" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A932" s="26"/>
-      <c r="F932" s="28"/>
+      <c r="A932" s="25"/>
+      <c r="F932" s="27"/>
     </row>
     <row r="933" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A933" s="26"/>
-      <c r="F933" s="28"/>
+      <c r="A933" s="25"/>
+      <c r="F933" s="27"/>
     </row>
     <row r="934" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A934" s="26"/>
-      <c r="F934" s="28"/>
+      <c r="A934" s="25"/>
+      <c r="F934" s="27"/>
     </row>
     <row r="935" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A935" s="26"/>
-      <c r="F935" s="28"/>
+      <c r="A935" s="25"/>
+      <c r="F935" s="27"/>
     </row>
     <row r="936" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A936" s="26"/>
-      <c r="F936" s="28"/>
+      <c r="A936" s="25"/>
+      <c r="F936" s="27"/>
     </row>
     <row r="937" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A937" s="26"/>
-      <c r="F937" s="28"/>
+      <c r="A937" s="25"/>
+      <c r="F937" s="27"/>
     </row>
     <row r="938" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A938" s="26"/>
-      <c r="F938" s="28"/>
+      <c r="A938" s="25"/>
+      <c r="F938" s="27"/>
     </row>
     <row r="939" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A939" s="26"/>
-      <c r="F939" s="28"/>
+      <c r="A939" s="25"/>
+      <c r="F939" s="27"/>
     </row>
     <row r="940" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A940" s="26"/>
-      <c r="F940" s="28"/>
+      <c r="A940" s="25"/>
+      <c r="F940" s="27"/>
     </row>
     <row r="941" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A941" s="26"/>
-      <c r="F941" s="28"/>
+      <c r="A941" s="25"/>
+      <c r="F941" s="27"/>
     </row>
     <row r="942" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A942" s="26"/>
-      <c r="F942" s="28"/>
+      <c r="A942" s="25"/>
+      <c r="F942" s="27"/>
     </row>
     <row r="943" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A943" s="26"/>
-      <c r="F943" s="28"/>
+      <c r="A943" s="25"/>
+      <c r="F943" s="27"/>
     </row>
     <row r="944" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A944" s="26"/>
-      <c r="F944" s="28"/>
+      <c r="A944" s="25"/>
+      <c r="F944" s="27"/>
     </row>
     <row r="945" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A945" s="26"/>
-      <c r="F945" s="28"/>
+      <c r="A945" s="25"/>
+      <c r="F945" s="27"/>
     </row>
     <row r="946" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A946" s="26"/>
-      <c r="F946" s="28"/>
+      <c r="A946" s="25"/>
+      <c r="F946" s="27"/>
     </row>
     <row r="947" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A947" s="26"/>
-      <c r="F947" s="28"/>
+      <c r="A947" s="25"/>
+      <c r="F947" s="27"/>
     </row>
     <row r="948" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A948" s="26"/>
-      <c r="F948" s="28"/>
+      <c r="A948" s="25"/>
+      <c r="F948" s="27"/>
     </row>
     <row r="949" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A949" s="26"/>
-      <c r="F949" s="28"/>
+      <c r="A949" s="25"/>
+      <c r="F949" s="27"/>
     </row>
     <row r="950" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A950" s="26"/>
-      <c r="F950" s="28"/>
+      <c r="A950" s="25"/>
+      <c r="F950" s="27"/>
     </row>
     <row r="951" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A951" s="26"/>
-      <c r="F951" s="28"/>
+      <c r="A951" s="25"/>
+      <c r="F951" s="27"/>
     </row>
     <row r="952" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A952" s="26"/>
-      <c r="F952" s="28"/>
+      <c r="A952" s="25"/>
+      <c r="F952" s="27"/>
     </row>
     <row r="953" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A953" s="26"/>
-      <c r="F953" s="28"/>
+      <c r="A953" s="25"/>
+      <c r="F953" s="27"/>
     </row>
     <row r="954" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A954" s="26"/>
-      <c r="F954" s="28"/>
+      <c r="A954" s="25"/>
+      <c r="F954" s="27"/>
     </row>
     <row r="955" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A955" s="26"/>
-      <c r="F955" s="28"/>
+      <c r="A955" s="25"/>
+      <c r="F955" s="27"/>
     </row>
     <row r="956" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A956" s="26"/>
-      <c r="F956" s="28"/>
+      <c r="A956" s="25"/>
+      <c r="F956" s="27"/>
     </row>
     <row r="957" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A957" s="26"/>
-      <c r="F957" s="28"/>
+      <c r="A957" s="25"/>
+      <c r="F957" s="27"/>
     </row>
     <row r="958" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A958" s="26"/>
-      <c r="F958" s="28"/>
+      <c r="A958" s="25"/>
+      <c r="F958" s="27"/>
     </row>
     <row r="959" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A959" s="26"/>
-      <c r="F959" s="28"/>
+      <c r="A959" s="25"/>
+      <c r="F959" s="27"/>
     </row>
     <row r="960" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A960" s="26"/>
-      <c r="F960" s="28"/>
+      <c r="A960" s="25"/>
+      <c r="F960" s="27"/>
     </row>
     <row r="961" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A961" s="26"/>
-      <c r="F961" s="28"/>
+      <c r="A961" s="25"/>
+      <c r="F961" s="27"/>
     </row>
     <row r="962" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A962" s="26"/>
-      <c r="F962" s="28"/>
+      <c r="A962" s="25"/>
+      <c r="F962" s="27"/>
     </row>
     <row r="963" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A963" s="26"/>
-      <c r="F963" s="28"/>
+      <c r="A963" s="25"/>
+      <c r="F963" s="27"/>
     </row>
     <row r="964" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A964" s="26"/>
-      <c r="F964" s="28"/>
+      <c r="A964" s="25"/>
+      <c r="F964" s="27"/>
     </row>
     <row r="965" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A965" s="26"/>
-      <c r="F965" s="28"/>
+      <c r="A965" s="25"/>
+      <c r="F965" s="27"/>
     </row>
     <row r="966" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A966" s="26"/>
-      <c r="F966" s="28"/>
+      <c r="A966" s="25"/>
+      <c r="F966" s="27"/>
     </row>
     <row r="967" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A967" s="26"/>
-      <c r="F967" s="28"/>
+      <c r="A967" s="25"/>
+      <c r="F967" s="27"/>
     </row>
     <row r="968" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A968" s="26"/>
-      <c r="F968" s="28"/>
+      <c r="A968" s="25"/>
+      <c r="F968" s="27"/>
     </row>
     <row r="969" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A969" s="26"/>
-      <c r="F969" s="28"/>
+      <c r="A969" s="25"/>
+      <c r="F969" s="27"/>
     </row>
     <row r="970" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A970" s="26"/>
-      <c r="F970" s="28"/>
+      <c r="A970" s="25"/>
+      <c r="F970" s="27"/>
     </row>
     <row r="971" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A971" s="26"/>
-      <c r="F971" s="28"/>
+      <c r="A971" s="25"/>
+      <c r="F971" s="27"/>
     </row>
     <row r="972" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A972" s="26"/>
-      <c r="F972" s="28"/>
+      <c r="A972" s="25"/>
+      <c r="F972" s="27"/>
     </row>
     <row r="973" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A973" s="26"/>
-      <c r="F973" s="28"/>
+      <c r="A973" s="25"/>
+      <c r="F973" s="27"/>
     </row>
     <row r="974" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A974" s="26"/>
-      <c r="F974" s="28"/>
+      <c r="A974" s="25"/>
+      <c r="F974" s="27"/>
     </row>
     <row r="975" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A975" s="26"/>
-      <c r="F975" s="28"/>
+      <c r="A975" s="25"/>
+      <c r="F975" s="27"/>
     </row>
     <row r="976" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A976" s="26"/>
-      <c r="F976" s="28"/>
+      <c r="A976" s="25"/>
+      <c r="F976" s="27"/>
     </row>
     <row r="977" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A977" s="26"/>
-      <c r="F977" s="28"/>
+      <c r="A977" s="25"/>
+      <c r="F977" s="27"/>
     </row>
     <row r="978" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A978" s="26"/>
-      <c r="F978" s="28"/>
+      <c r="A978" s="25"/>
+      <c r="F978" s="27"/>
     </row>
     <row r="979" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A979" s="26"/>
-      <c r="F979" s="28"/>
+      <c r="A979" s="25"/>
+      <c r="F979" s="27"/>
     </row>
     <row r="980" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A980" s="26"/>
-      <c r="F980" s="28"/>
+      <c r="A980" s="25"/>
+      <c r="F980" s="27"/>
     </row>
     <row r="981" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A981" s="26"/>
-      <c r="F981" s="28"/>
+      <c r="A981" s="25"/>
+      <c r="F981" s="27"/>
     </row>
     <row r="982" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A982" s="26"/>
-      <c r="F982" s="28"/>
+      <c r="A982" s="25"/>
+      <c r="F982" s="27"/>
     </row>
     <row r="983" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A983" s="26"/>
-      <c r="F983" s="28"/>
+      <c r="A983" s="25"/>
+      <c r="F983" s="27"/>
     </row>
     <row r="984" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="26"/>
-      <c r="F984" s="28"/>
+      <c r="A984" s="25"/>
+      <c r="F984" s="27"/>
     </row>
     <row r="985" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="26"/>
-      <c r="F985" s="28"/>
+      <c r="A985" s="25"/>
+      <c r="F985" s="27"/>
     </row>
     <row r="986" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="26"/>
-      <c r="F986" s="28"/>
+      <c r="A986" s="25"/>
+      <c r="F986" s="27"/>
     </row>
     <row r="987" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="26"/>
-      <c r="F987" s="28"/>
+      <c r="A987" s="25"/>
+      <c r="F987" s="27"/>
     </row>
     <row r="988" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A988" s="26"/>
-      <c r="F988" s="28"/>
+      <c r="A988" s="25"/>
+      <c r="F988" s="27"/>
     </row>
     <row r="989" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A989" s="26"/>
-      <c r="F989" s="28"/>
+      <c r="A989" s="25"/>
+      <c r="F989" s="27"/>
     </row>
     <row r="990" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A990" s="26"/>
-      <c r="F990" s="28"/>
+      <c r="A990" s="25"/>
+      <c r="F990" s="27"/>
     </row>
     <row r="991" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A991" s="26"/>
-      <c r="F991" s="28"/>
+      <c r="A991" s="25"/>
+      <c r="F991" s="27"/>
     </row>
     <row r="992" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A992" s="26"/>
-      <c r="F992" s="28"/>
+      <c r="A992" s="25"/>
+      <c r="F992" s="27"/>
     </row>
     <row r="993" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A993" s="26"/>
-      <c r="F993" s="28"/>
+      <c r="A993" s="25"/>
+      <c r="F993" s="27"/>
     </row>
     <row r="994" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A994" s="26"/>
-      <c r="F994" s="28"/>
+      <c r="A994" s="25"/>
+      <c r="F994" s="27"/>
     </row>
     <row r="995" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A995" s="26"/>
-      <c r="F995" s="28"/>
+      <c r="A995" s="25"/>
+      <c r="F995" s="27"/>
     </row>
     <row r="996" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A996" s="26"/>
-      <c r="F996" s="28"/>
+      <c r="A996" s="25"/>
+      <c r="F996" s="27"/>
     </row>
     <row r="997" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A997" s="26"/>
-      <c r="F997" s="28"/>
+      <c r="A997" s="25"/>
+      <c r="F997" s="27"/>
     </row>
     <row r="998" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A998" s="26"/>
-      <c r="F998" s="28"/>
+      <c r="A998" s="25"/>
+      <c r="F998" s="27"/>
     </row>
     <row r="999" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A999" s="26"/>
-      <c r="F999" s="28"/>
+      <c r="A999" s="25"/>
+      <c r="F999" s="27"/>
     </row>
     <row r="1000" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="26"/>
-      <c r="F1000" s="28"/>
+      <c r="A1000" s="25"/>
+      <c r="F1000" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -13040,8 +13098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13095,24 +13153,24 @@
         <v>45</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E2" s="16">
-        <v>150</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="F2" s="16">
+        <v>30</v>
       </c>
       <c r="G2" s="16">
         <v>26</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="H2" s="16">
+        <v>30</v>
+      </c>
+      <c r="I2" s="19">
         <v>44835</v>
       </c>
     </row>
@@ -13124,24 +13182,24 @@
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3" s="16">
-        <v>150</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="21">
+        <v>30</v>
+      </c>
+      <c r="F3" s="16">
+        <v>30</v>
+      </c>
+      <c r="G3" s="20">
         <v>20</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="20">
+      <c r="H3" s="16">
+        <v>30</v>
+      </c>
+      <c r="I3" s="19">
         <v>44836</v>
       </c>
     </row>
@@ -13153,24 +13211,24 @@
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4" s="16">
-        <v>150</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="21">
+        <v>30</v>
+      </c>
+      <c r="F4" s="16">
+        <v>30</v>
+      </c>
+      <c r="G4" s="20">
         <v>28</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="20">
+      <c r="H4" s="16">
+        <v>30</v>
+      </c>
+      <c r="I4" s="19">
         <v>44836</v>
       </c>
     </row>
@@ -13182,24 +13240,24 @@
         <v>51</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5" s="16">
-        <v>150</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" s="21">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16">
+        <v>30</v>
+      </c>
+      <c r="G5" s="20">
         <v>20</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="H5" s="16">
+        <v>30</v>
+      </c>
+      <c r="I5" s="19">
         <v>44834</v>
       </c>
     </row>
@@ -13211,24 +13269,24 @@
         <v>14</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" s="16">
-        <v>150</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="21">
+        <v>30</v>
+      </c>
+      <c r="F6" s="16">
+        <v>30</v>
+      </c>
+      <c r="G6" s="20">
         <v>13</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="H6" s="16">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19">
         <v>44836</v>
       </c>
     </row>
@@ -13240,24 +13298,24 @@
         <v>55</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7" s="16">
-        <v>150</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="21">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16">
+        <v>30</v>
+      </c>
+      <c r="G7" s="20">
         <v>14</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="H7" s="16">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19">
         <v>44836</v>
       </c>
     </row>
@@ -13269,24 +13327,24 @@
         <v>58</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8" s="16">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="21">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16">
+        <v>30</v>
+      </c>
+      <c r="G8" s="20">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="H8" s="16">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19">
         <v>44835</v>
       </c>
     </row>
@@ -13298,24 +13356,24 @@
         <v>60</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9" s="16">
-        <v>150</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="21">
+        <v>30</v>
+      </c>
+      <c r="F9" s="16">
+        <v>30</v>
+      </c>
+      <c r="G9" s="20">
         <v>19</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="20">
+      <c r="H9" s="16">
+        <v>30</v>
+      </c>
+      <c r="I9" s="19">
         <v>44836</v>
       </c>
     </row>
@@ -13360,19 +13418,19 @@
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -13384,7 +13442,7 @@
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -17316,7 +17374,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17363,10 +17421,10 @@
         <v>63</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E2" s="16">
         <v>30</v>
@@ -17380,7 +17438,7 @@
       <c r="H2" s="16">
         <v>30</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>44846</v>
       </c>
     </row>
@@ -17392,10 +17450,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3" s="16">
         <v>30</v>
@@ -17409,7 +17467,7 @@
       <c r="H3" s="16">
         <v>30</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>44847</v>
       </c>
     </row>
@@ -17421,10 +17479,10 @@
         <v>69</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4" s="16">
         <v>30</v>
@@ -17438,7 +17496,7 @@
       <c r="H4" s="16">
         <v>30</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>44846</v>
       </c>
     </row>
@@ -17450,10 +17508,10 @@
         <v>72</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5" s="16">
         <v>30</v>
@@ -17467,7 +17525,7 @@
       <c r="H5" s="16">
         <v>30</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>44846</v>
       </c>
     </row>
@@ -17479,10 +17537,10 @@
         <v>75</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" s="16">
         <v>30</v>
@@ -17496,7 +17554,7 @@
       <c r="H6" s="16">
         <v>30</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>44846</v>
       </c>
     </row>
@@ -17508,10 +17566,10 @@
         <v>78</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7" s="16">
         <v>30</v>
@@ -17525,7 +17583,7 @@
       <c r="H7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>44846</v>
       </c>
     </row>
@@ -17537,10 +17595,10 @@
         <v>81</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8" s="16">
         <v>30</v>
@@ -17554,7 +17612,7 @@
       <c r="H8" s="16">
         <v>30</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>44846</v>
       </c>
     </row>
@@ -17566,10 +17624,10 @@
         <v>84</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9" s="16">
         <v>30</v>
@@ -17583,7 +17641,7 @@
       <c r="H9" s="16">
         <v>30</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>44846</v>
       </c>
     </row>
@@ -17606,17 +17664,17 @@
     </row>
     <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17626,7 +17684,7 @@
     </row>
     <row r="21" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18620,7 +18678,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18667,7 +18725,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>15</v>
@@ -18678,16 +18736,25 @@
       <c r="F2" s="16">
         <v>30</v>
       </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2" s="16">
+        <v>30</v>
+      </c>
+      <c r="I2" s="19">
+        <v>44863</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C3" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>15</v>
@@ -18698,16 +18765,25 @@
       <c r="F3" s="16">
         <v>30</v>
       </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" s="16">
+        <v>30</v>
+      </c>
+      <c r="I3" s="19">
+        <v>44863</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>15</v>
@@ -18718,16 +18794,22 @@
       <c r="F4" s="16">
         <v>30</v>
       </c>
+      <c r="H4" s="16">
+        <v>30</v>
+      </c>
+      <c r="I4" s="19">
+        <v>44863</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>15</v>
@@ -18738,16 +18820,22 @@
       <c r="F5" s="16">
         <v>30</v>
       </c>
+      <c r="H5" s="16">
+        <v>30</v>
+      </c>
+      <c r="I5" s="19">
+        <v>44863</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>15</v>
@@ -18758,16 +18846,22 @@
       <c r="F6" s="16">
         <v>30</v>
       </c>
+      <c r="H6" s="16">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19">
+        <v>44863</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>15</v>
@@ -18778,16 +18872,22 @@
       <c r="F7" s="16">
         <v>30</v>
       </c>
+      <c r="H7" s="16">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19">
+        <v>44863</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>15</v>
@@ -18798,16 +18898,22 @@
       <c r="F8" s="16">
         <v>30</v>
       </c>
+      <c r="H8" s="16">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19">
+        <v>44863</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>15</v>
@@ -18817,6 +18923,12 @@
       </c>
       <c r="F9" s="16">
         <v>30</v>
+      </c>
+      <c r="H9" s="16">
+        <v>30</v>
+      </c>
+      <c r="I9" s="19">
+        <v>44863</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18824,24 +18936,54 @@
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19821,7 +19963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19857,14 +20001,166 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="16">
+        <v>30</v>
+      </c>
+      <c r="F2" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="16">
+        <v>30</v>
+      </c>
+      <c r="F3" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="16">
+        <v>30</v>
+      </c>
+      <c r="F4" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <v>30</v>
+      </c>
+      <c r="F6" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>30</v>
+      </c>
+      <c r="F9" s="16">
+        <v>30</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20868,7 +21164,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21094,285 +21390,285 @@
         <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lijp0\Desktop\555\Group Project\CS555_team5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13688B28-FE02-48CC-99F1-AFF53BBBEBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9E58D3-1811-4101-957E-4B1D129BD9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2099,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8985,7 +8985,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9128,10 +9128,16 @@
       <c r="C6" s="23">
         <v>8</v>
       </c>
+      <c r="D6" s="23">
+        <v>717</v>
+      </c>
       <c r="E6" s="23">
         <v>240</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="26">
+        <f>(D6-D5)/E6*60</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -17397,7 +17403,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H9"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20004,8 +20010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20063,6 +20069,9 @@
       <c r="F2" s="16">
         <v>30</v>
       </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
       <c r="H2" s="16">
         <v>30</v>
       </c>
@@ -20089,6 +20098,9 @@
       <c r="F3" s="16">
         <v>30</v>
       </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
       <c r="H3" s="16">
         <v>30</v>
       </c>
@@ -20115,6 +20127,9 @@
       <c r="F4" s="16">
         <v>30</v>
       </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
       <c r="H4" s="16">
         <v>30</v>
       </c>
@@ -20141,6 +20156,9 @@
       <c r="F5" s="16">
         <v>30</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
       <c r="H5" s="16">
         <v>30</v>
       </c>
@@ -20167,6 +20185,9 @@
       <c r="F6" s="16">
         <v>30</v>
       </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
       <c r="H6" s="16">
         <v>30</v>
       </c>
@@ -20193,6 +20214,9 @@
       <c r="F7" s="16">
         <v>30</v>
       </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
       <c r="H7" s="16">
         <v>30</v>
       </c>
@@ -20219,6 +20243,9 @@
       <c r="F8" s="16">
         <v>30</v>
       </c>
+      <c r="G8">
+        <v>27</v>
+      </c>
       <c r="H8" s="16">
         <v>30</v>
       </c>
@@ -20244,6 +20271,9 @@
       </c>
       <c r="F9" s="16">
         <v>30</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
       </c>
       <c r="H9" s="16">
         <v>30</v>
